--- a/DATA/AMZN.xlsx
+++ b/DATA/AMZN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadum\OneDrive\Scientfic Computing\Stock Price Forecasting\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80D0800-2F5B-4EC4-B912-7EF105B507E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C80D0800-2F5B-4EC4-B912-7EF105B507E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54E918B-4E59-4724-B988-32754B5EC134}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,3018 +408,3018 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>43098</v>
+        <v>42006</v>
       </c>
       <c r="B1">
-        <v>1169.47</v>
+        <v>308.52001999999999</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43097</v>
+        <v>42009</v>
       </c>
       <c r="B2">
-        <v>1186.1001000000001</v>
+        <v>302.18995000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43096</v>
+        <v>42010</v>
       </c>
       <c r="B3">
-        <v>1182.2601</v>
+        <v>295.29003999999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43095</v>
+        <v>42011</v>
       </c>
       <c r="B4">
-        <v>1176.7601</v>
+        <v>298.41993000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43091</v>
+        <v>42012</v>
       </c>
       <c r="B5">
-        <v>1168.3602000000001</v>
+        <v>300.45997</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43090</v>
+        <v>42013</v>
       </c>
       <c r="B6">
-        <v>1174.7601</v>
+        <v>296.92993999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43089</v>
+        <v>42016</v>
       </c>
       <c r="B7">
-        <v>1177.6202000000001</v>
+        <v>291.40992</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43088</v>
+        <v>42017</v>
       </c>
       <c r="B8">
-        <v>1187.3798999999999</v>
+        <v>294.74</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43087</v>
+        <v>42018</v>
       </c>
       <c r="B9">
-        <v>1190.5800999999999</v>
+        <v>293.27001999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43084</v>
+        <v>42019</v>
       </c>
       <c r="B10">
-        <v>1179.1398999999999</v>
+        <v>286.94995999999998</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43083</v>
+        <v>42020</v>
       </c>
       <c r="B11">
-        <v>1174.2601</v>
+        <v>290.74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43082</v>
+        <v>42024</v>
       </c>
       <c r="B12">
-        <v>1164.1298999999999</v>
+        <v>289.43995000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43081</v>
+        <v>42025</v>
       </c>
       <c r="B13">
-        <v>1165.0800999999999</v>
+        <v>297.25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43080</v>
+        <v>42026</v>
       </c>
       <c r="B14">
-        <v>1168.92</v>
+        <v>310.32006999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43077</v>
+        <v>42027</v>
       </c>
       <c r="B15">
-        <v>1162</v>
+        <v>312.38990000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43076</v>
+        <v>42030</v>
       </c>
       <c r="B16">
-        <v>1159.7900999999999</v>
+        <v>309.65992</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43075</v>
+        <v>42031</v>
       </c>
       <c r="B17">
-        <v>1152.3501000000001</v>
+        <v>306.75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43074</v>
+        <v>42032</v>
       </c>
       <c r="B18">
-        <v>1141.5700999999999</v>
+        <v>303.90992</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43073</v>
+        <v>42033</v>
       </c>
       <c r="B19">
-        <v>1133.95</v>
+        <v>311.78003000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43070</v>
+        <v>42034</v>
       </c>
       <c r="B20">
-        <v>1162.3501000000001</v>
+        <v>354.53003000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43069</v>
+        <v>42037</v>
       </c>
       <c r="B21">
-        <v>1176.75</v>
+        <v>364.46998000000002</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43068</v>
+        <v>42038</v>
       </c>
       <c r="B22">
-        <v>1161.2701</v>
+        <v>363.55005</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43067</v>
+        <v>42039</v>
       </c>
       <c r="B23">
-        <v>1193.6001000000001</v>
+        <v>364.75</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43066</v>
+        <v>42040</v>
       </c>
       <c r="B24">
-        <v>1195.8300999999999</v>
+        <v>373.88990000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43063</v>
+        <v>42041</v>
       </c>
       <c r="B25">
-        <v>1186</v>
+        <v>374.28003000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43061</v>
+        <v>42044</v>
       </c>
       <c r="B26">
-        <v>1156.1600000000001</v>
+        <v>370.56006000000002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43060</v>
+        <v>42045</v>
       </c>
       <c r="B27">
-        <v>1139.49</v>
+        <v>372.99511999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43059</v>
+        <v>42046</v>
       </c>
       <c r="B28">
-        <v>1126.3100999999999</v>
+        <v>375.13990000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43056</v>
+        <v>42047</v>
       </c>
       <c r="B29">
-        <v>1129.8798999999999</v>
+        <v>377.16993000000002</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43055</v>
+        <v>42048</v>
       </c>
       <c r="B30">
-        <v>1137.2900999999999</v>
+        <v>381.83008000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43054</v>
+        <v>42052</v>
       </c>
       <c r="B31">
-        <v>1126.69</v>
+        <v>375.42993999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43053</v>
+        <v>42053</v>
       </c>
       <c r="B32">
-        <v>1136.8400999999999</v>
+        <v>373.37011999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43052</v>
+        <v>42054</v>
       </c>
       <c r="B33">
-        <v>1129.17</v>
+        <v>378.99511999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43049</v>
+        <v>42055</v>
       </c>
       <c r="B34">
-        <v>1125.3501000000001</v>
+        <v>383.65992</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43048</v>
+        <v>42058</v>
       </c>
       <c r="B35">
-        <v>1129.1298999999999</v>
+        <v>380.13990000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43047</v>
+        <v>42059</v>
       </c>
       <c r="B36">
-        <v>1132.8798999999999</v>
+        <v>378.59008999999998</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43046</v>
+        <v>42060</v>
       </c>
       <c r="B37">
-        <v>1123.17</v>
+        <v>385.37011999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43045</v>
+        <v>42061</v>
       </c>
       <c r="B38">
-        <v>1120.6600000000001</v>
+        <v>384.80005</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43042</v>
+        <v>42062</v>
       </c>
       <c r="B39">
-        <v>1111.6001000000001</v>
+        <v>380.15992</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43041</v>
+        <v>42065</v>
       </c>
       <c r="B40">
-        <v>1094.22</v>
+        <v>385.65503000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43040</v>
+        <v>42066</v>
       </c>
       <c r="B41">
-        <v>1103.68</v>
+        <v>384.61011000000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43039</v>
+        <v>42067</v>
       </c>
       <c r="B42">
-        <v>1105.2800999999999</v>
+        <v>382.71998000000002</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43038</v>
+        <v>42068</v>
       </c>
       <c r="B43">
-        <v>1110.8501000000001</v>
+        <v>387.83008000000001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43035</v>
+        <v>42069</v>
       </c>
       <c r="B44">
-        <v>1100.95</v>
+        <v>380.09008999999998</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43034</v>
+        <v>42072</v>
       </c>
       <c r="B45">
-        <v>972.42993999999999</v>
+        <v>378.56006000000002</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43033</v>
+        <v>42073</v>
       </c>
       <c r="B46">
-        <v>972.90992000000006</v>
+        <v>369.51001000000002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43032</v>
+        <v>42074</v>
       </c>
       <c r="B47">
-        <v>975.89990999999998</v>
+        <v>366.37011999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43031</v>
+        <v>42075</v>
       </c>
       <c r="B48">
-        <v>966.30005000000006</v>
+        <v>374.24</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43028</v>
+        <v>42076</v>
       </c>
       <c r="B49">
-        <v>982.90992000000006</v>
+        <v>370.58008000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43027</v>
+        <v>42079</v>
       </c>
       <c r="B50">
-        <v>986.61010999999996</v>
+        <v>373.3501</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43026</v>
+        <v>42080</v>
       </c>
       <c r="B51">
-        <v>997</v>
+        <v>371.91993000000002</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43025</v>
+        <v>42081</v>
       </c>
       <c r="B52">
-        <v>1009.1299</v>
+        <v>375.13501000000002</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43024</v>
+        <v>42082</v>
       </c>
       <c r="B53">
-        <v>1006.3401</v>
+        <v>373.24</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43021</v>
+        <v>42083</v>
       </c>
       <c r="B54">
-        <v>1002.94</v>
+        <v>378.49</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43020</v>
+        <v>42086</v>
       </c>
       <c r="B55">
-        <v>1000.93</v>
+        <v>375.11011000000002</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>43019</v>
+        <v>42087</v>
       </c>
       <c r="B56">
-        <v>995</v>
+        <v>374.09008999999998</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43018</v>
+        <v>42088</v>
       </c>
       <c r="B57">
-        <v>987.19996000000003</v>
+        <v>370.95997</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43017</v>
+        <v>42089</v>
       </c>
       <c r="B58">
-        <v>990.99</v>
+        <v>367.3501</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43014</v>
+        <v>42090</v>
       </c>
       <c r="B59">
-        <v>989.58007999999995</v>
+        <v>370.56006000000002</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43013</v>
+        <v>42093</v>
       </c>
       <c r="B60">
-        <v>980.8501</v>
+        <v>374.59008999999998</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>43012</v>
+        <v>42094</v>
       </c>
       <c r="B61">
-        <v>965.44996000000003</v>
+        <v>372.1001</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>43011</v>
+        <v>42095</v>
       </c>
       <c r="B62">
-        <v>957.1001</v>
+        <v>370.25488999999999</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>43010</v>
+        <v>42096</v>
       </c>
       <c r="B63">
-        <v>959.18994999999995</v>
+        <v>372.25</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>43007</v>
+        <v>42100</v>
       </c>
       <c r="B64">
-        <v>961.3501</v>
+        <v>377.04003999999998</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>43006</v>
+        <v>42101</v>
       </c>
       <c r="B65">
-        <v>956.39990999999998</v>
+        <v>374.40992</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>43005</v>
+        <v>42102</v>
       </c>
       <c r="B66">
-        <v>950.87012000000004</v>
+        <v>381.19995999999998</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>43004</v>
+        <v>42103</v>
       </c>
       <c r="B67">
-        <v>938.6001</v>
+        <v>383.54003999999998</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>43003</v>
+        <v>42104</v>
       </c>
       <c r="B68">
-        <v>939.79003999999998</v>
+        <v>382.64990999999998</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>43000</v>
+        <v>42107</v>
       </c>
       <c r="B69">
-        <v>955.1001</v>
+        <v>382.36011000000002</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>42999</v>
+        <v>42108</v>
       </c>
       <c r="B70">
-        <v>964.64990999999998</v>
+        <v>385.11011000000002</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>42998</v>
+        <v>42109</v>
       </c>
       <c r="B71">
-        <v>973.20997</v>
+        <v>383.44995999999998</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>42997</v>
+        <v>42110</v>
       </c>
       <c r="B72">
-        <v>969.86010999999996</v>
+        <v>386.04003999999998</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>42996</v>
+        <v>42111</v>
       </c>
       <c r="B73">
-        <v>974.18994999999995</v>
+        <v>375.56006000000002</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>42993</v>
+        <v>42114</v>
       </c>
       <c r="B74">
-        <v>986.79003999999998</v>
+        <v>389.51001000000002</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>42992</v>
+        <v>42115</v>
       </c>
       <c r="B75">
-        <v>992.20997</v>
+        <v>391.17993999999999</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>42991</v>
+        <v>42116</v>
       </c>
       <c r="B76">
-        <v>999.6001</v>
+        <v>389.80005</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>42990</v>
+        <v>42117</v>
       </c>
       <c r="B77">
-        <v>982.58007999999995</v>
+        <v>389.99</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>42989</v>
+        <v>42118</v>
       </c>
       <c r="B78">
-        <v>977.95997</v>
+        <v>445.1001</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>42986</v>
+        <v>42121</v>
       </c>
       <c r="B79">
-        <v>965.89990999999998</v>
+        <v>438.56006000000002</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>42985</v>
+        <v>42122</v>
       </c>
       <c r="B80">
-        <v>979.46997999999996</v>
+        <v>429.31006000000002</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>42984</v>
+        <v>42123</v>
       </c>
       <c r="B81">
-        <v>967.80005000000006</v>
+        <v>429.37011999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>42983</v>
+        <v>42124</v>
       </c>
       <c r="B82">
-        <v>965.27002000000005</v>
+        <v>421.78003000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>42979</v>
+        <v>42125</v>
       </c>
       <c r="B83">
-        <v>978.25</v>
+        <v>422.87011999999999</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>42978</v>
+        <v>42128</v>
       </c>
       <c r="B84">
-        <v>980.6001</v>
+        <v>423.04003999999998</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>42977</v>
+        <v>42129</v>
       </c>
       <c r="B85">
-        <v>967.59009000000003</v>
+        <v>421.18995000000001</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>42976</v>
+        <v>42130</v>
       </c>
       <c r="B86">
-        <v>954.06006000000002</v>
+        <v>419.1001</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>42975</v>
+        <v>42131</v>
       </c>
       <c r="B87">
-        <v>946.02002000000005</v>
+        <v>426.87988999999999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>42972</v>
+        <v>42132</v>
       </c>
       <c r="B88">
-        <v>945.26000999999997</v>
+        <v>433.68995000000001</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>42971</v>
+        <v>42135</v>
       </c>
       <c r="B89">
-        <v>952.44996000000003</v>
+        <v>432.8501</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>42970</v>
+        <v>42136</v>
       </c>
       <c r="B90">
-        <v>958</v>
+        <v>431.02001999999999</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>42969</v>
+        <v>42137</v>
       </c>
       <c r="B91">
-        <v>966.89990999999998</v>
+        <v>426.87011999999999</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>42968</v>
+        <v>42138</v>
       </c>
       <c r="B92">
-        <v>953.29003999999998</v>
+        <v>432.28003000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>42965</v>
+        <v>42139</v>
       </c>
       <c r="B93">
-        <v>958.46997999999996</v>
+        <v>426</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>42964</v>
+        <v>42142</v>
       </c>
       <c r="B94">
-        <v>960.57006999999999</v>
+        <v>425.24</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>42963</v>
+        <v>42143</v>
       </c>
       <c r="B95">
-        <v>978.17993999999999</v>
+        <v>421.70997</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>42962</v>
+        <v>42144</v>
       </c>
       <c r="B96">
-        <v>982.74</v>
+        <v>423.86011000000002</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>42961</v>
+        <v>42145</v>
       </c>
       <c r="B97">
-        <v>983.30005000000006</v>
+        <v>431.62988999999999</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>42958</v>
+        <v>42146</v>
       </c>
       <c r="B98">
-        <v>967.99</v>
+        <v>427.62988999999999</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>42957</v>
+        <v>42150</v>
       </c>
       <c r="B99">
-        <v>956.91993000000002</v>
+        <v>425.46998000000002</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>42956</v>
+        <v>42151</v>
       </c>
       <c r="B100">
-        <v>982.01000999999997</v>
+        <v>431.41993000000002</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>42955</v>
+        <v>42152</v>
       </c>
       <c r="B101">
-        <v>989.84009000000003</v>
+        <v>426.57006999999999</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>42954</v>
+        <v>42153</v>
       </c>
       <c r="B102">
-        <v>992.27002000000005</v>
+        <v>429.22998999999999</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>42951</v>
+        <v>42156</v>
       </c>
       <c r="B103">
-        <v>987.58007999999995</v>
+        <v>430.91993000000002</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>42950</v>
+        <v>42157</v>
       </c>
       <c r="B104">
-        <v>986.91993000000002</v>
+        <v>430.99</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>42949</v>
+        <v>42158</v>
       </c>
       <c r="B105">
-        <v>995.88990000000001</v>
+        <v>436.59008999999998</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>42948</v>
+        <v>42159</v>
       </c>
       <c r="B106">
-        <v>996.18994999999995</v>
+        <v>430.78003000000001</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>42947</v>
+        <v>42160</v>
       </c>
       <c r="B107">
-        <v>987.78003000000001</v>
+        <v>426.94995999999998</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>42944</v>
+        <v>42163</v>
       </c>
       <c r="B108">
-        <v>1020.0401000000001</v>
+        <v>423.5</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>42943</v>
+        <v>42164</v>
       </c>
       <c r="B109">
-        <v>1046</v>
+        <v>425.47998999999999</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>42942</v>
+        <v>42165</v>
       </c>
       <c r="B110">
-        <v>1052.8000999999999</v>
+        <v>430.77001999999999</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>42941</v>
+        <v>42166</v>
       </c>
       <c r="B111">
-        <v>1039.8702000000001</v>
+        <v>432.96998000000002</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>42940</v>
+        <v>42167</v>
       </c>
       <c r="B112">
-        <v>1038.95</v>
+        <v>429.91993000000002</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>42937</v>
+        <v>42170</v>
       </c>
       <c r="B113">
-        <v>1025.67</v>
+        <v>423.66993000000002</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>42936</v>
+        <v>42171</v>
       </c>
       <c r="B114">
-        <v>1028.7</v>
+        <v>427.26001000000002</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>42935</v>
+        <v>42172</v>
       </c>
       <c r="B115">
-        <v>1026.8702000000001</v>
+        <v>427.81006000000002</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>42934</v>
+        <v>42173</v>
       </c>
       <c r="B116">
-        <v>1024.45</v>
+        <v>439.38990000000001</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>42933</v>
+        <v>42174</v>
       </c>
       <c r="B117">
-        <v>1010.0401000000001</v>
+        <v>434.91993000000002</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>42930</v>
+        <v>42177</v>
       </c>
       <c r="B118">
-        <v>1001.8101</v>
+        <v>436.29003999999998</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>42929</v>
+        <v>42178</v>
       </c>
       <c r="B119">
-        <v>1000.6299</v>
+        <v>445.99</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>42928</v>
+        <v>42179</v>
       </c>
       <c r="B120">
-        <v>1006.5101</v>
+        <v>440.84008999999998</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>42927</v>
+        <v>42180</v>
       </c>
       <c r="B121">
-        <v>994.12989000000005</v>
+        <v>440.1001</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>42926</v>
+        <v>42181</v>
       </c>
       <c r="B122">
-        <v>996.46997999999996</v>
+        <v>438.1001</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>42923</v>
+        <v>42184</v>
       </c>
       <c r="B123">
-        <v>978.76000999999997</v>
+        <v>429.86011000000002</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>42922</v>
+        <v>42185</v>
       </c>
       <c r="B124">
-        <v>965.13990000000001</v>
+        <v>434.09008999999998</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>42921</v>
+        <v>42186</v>
       </c>
       <c r="B125">
-        <v>971.39990999999998</v>
+        <v>437.38990000000001</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>42919</v>
+        <v>42187</v>
       </c>
       <c r="B126">
-        <v>953.65992000000006</v>
+        <v>437.70997</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>42916</v>
+        <v>42191</v>
       </c>
       <c r="B127">
-        <v>968</v>
+        <v>436.04003999999998</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>42915</v>
+        <v>42192</v>
       </c>
       <c r="B128">
-        <v>975.92993999999999</v>
+        <v>436.71998000000002</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>42914</v>
+        <v>42193</v>
       </c>
       <c r="B129">
-        <v>990.33007999999995</v>
+        <v>429.69995999999998</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>42913</v>
+        <v>42194</v>
       </c>
       <c r="B130">
-        <v>976.78003000000001</v>
+        <v>434.38990000000001</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>42912</v>
+        <v>42195</v>
       </c>
       <c r="B131">
-        <v>993.97999000000004</v>
+        <v>443.51001000000002</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>42909</v>
+        <v>42198</v>
       </c>
       <c r="B132">
-        <v>1003.74</v>
+        <v>455.57006999999999</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>42908</v>
+        <v>42199</v>
       </c>
       <c r="B133">
-        <v>1001.3001</v>
+        <v>465.57006999999999</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>42907</v>
+        <v>42200</v>
       </c>
       <c r="B134">
-        <v>1002.23</v>
+        <v>461.18995000000001</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>42906</v>
+        <v>42201</v>
       </c>
       <c r="B135">
-        <v>992.59009000000003</v>
+        <v>475.47998999999999</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>42905</v>
+        <v>42202</v>
       </c>
       <c r="B136">
-        <v>995.16993000000002</v>
+        <v>483.01001000000002</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>42902</v>
+        <v>42205</v>
       </c>
       <c r="B137">
-        <v>987.70997</v>
+        <v>488.1001</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>42901</v>
+        <v>42206</v>
       </c>
       <c r="B138">
-        <v>964.16993000000002</v>
+        <v>488</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>42900</v>
+        <v>42207</v>
       </c>
       <c r="B139">
-        <v>976.46997999999996</v>
+        <v>488.27001999999999</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>42899</v>
+        <v>42208</v>
       </c>
       <c r="B140">
-        <v>980.79003999999998</v>
+        <v>482.17993999999999</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>42898</v>
+        <v>42209</v>
       </c>
       <c r="B141">
-        <v>964.90992000000006</v>
+        <v>529.41993000000002</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>42895</v>
+        <v>42212</v>
       </c>
       <c r="B142">
-        <v>978.31006000000002</v>
+        <v>531.40992000000006</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>42894</v>
+        <v>42213</v>
       </c>
       <c r="B143">
-        <v>1010.2701</v>
+        <v>526.03003000000001</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>42893</v>
+        <v>42214</v>
       </c>
       <c r="B144">
-        <v>1010.0701</v>
+        <v>529</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>42892</v>
+        <v>42215</v>
       </c>
       <c r="B145">
-        <v>1003</v>
+        <v>536.76000999999997</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>42891</v>
+        <v>42216</v>
       </c>
       <c r="B146">
-        <v>1011.3401</v>
+        <v>536.14990999999998</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>42888</v>
+        <v>42219</v>
       </c>
       <c r="B147">
-        <v>1006.73</v>
+        <v>535.03003000000001</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>42887</v>
+        <v>42220</v>
       </c>
       <c r="B148">
-        <v>995.94996000000003</v>
+        <v>531.89990999999998</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>42886</v>
+        <v>42221</v>
       </c>
       <c r="B149">
-        <v>994.62012000000004</v>
+        <v>537.01000999999997</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>42885</v>
+        <v>42222</v>
       </c>
       <c r="B150">
-        <v>996.69996000000003</v>
+        <v>529.45997</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>42881</v>
+        <v>42223</v>
       </c>
       <c r="B151">
-        <v>995.78003000000001</v>
+        <v>522.62012000000004</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>42880</v>
+        <v>42226</v>
       </c>
       <c r="B152">
-        <v>993.37989000000005</v>
+        <v>524</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>42879</v>
+        <v>42227</v>
       </c>
       <c r="B153">
-        <v>980.3501</v>
+        <v>527.45997</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>42878</v>
+        <v>42228</v>
       </c>
       <c r="B154">
-        <v>971.54003999999998</v>
+        <v>525.90992000000006</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>42877</v>
+        <v>42229</v>
       </c>
       <c r="B155">
-        <v>970.66993000000002</v>
+        <v>529.65992000000006</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>42874</v>
+        <v>42230</v>
       </c>
       <c r="B156">
-        <v>959.84009000000003</v>
+        <v>531.52002000000005</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>42873</v>
+        <v>42233</v>
       </c>
       <c r="B157">
-        <v>958.49</v>
+        <v>535.21997999999996</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>42872</v>
+        <v>42234</v>
       </c>
       <c r="B158">
-        <v>944.76000999999997</v>
+        <v>535.02002000000005</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>42871</v>
+        <v>42235</v>
       </c>
       <c r="B159">
-        <v>966.07006999999999</v>
+        <v>532.91993000000002</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>42870</v>
+        <v>42236</v>
       </c>
       <c r="B160">
-        <v>957.96997999999996</v>
+        <v>515.78003000000001</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>42867</v>
+        <v>42237</v>
       </c>
       <c r="B161">
-        <v>961.3501</v>
+        <v>494.46998000000002</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>42866</v>
+        <v>42240</v>
       </c>
       <c r="B162">
-        <v>947.62012000000004</v>
+        <v>463.37011999999999</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>42865</v>
+        <v>42241</v>
       </c>
       <c r="B163">
-        <v>948.94996000000003</v>
+        <v>466.37011999999999</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>42864</v>
+        <v>42242</v>
       </c>
       <c r="B164">
-        <v>952.82006999999999</v>
+        <v>500.77001999999999</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>42863</v>
+        <v>42243</v>
       </c>
       <c r="B165">
-        <v>949.04003999999998</v>
+        <v>518.37012000000004</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>42860</v>
+        <v>42244</v>
       </c>
       <c r="B166">
-        <v>934.14990999999998</v>
+        <v>518.01000999999997</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>42859</v>
+        <v>42247</v>
       </c>
       <c r="B167">
-        <v>937.53003000000001</v>
+        <v>512.88990000000001</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>42858</v>
+        <v>42248</v>
       </c>
       <c r="B168">
-        <v>941.03003000000001</v>
+        <v>496.54003999999998</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>42857</v>
+        <v>42249</v>
       </c>
       <c r="B169">
-        <v>946.93994999999995</v>
+        <v>510.55005</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>42856</v>
+        <v>42250</v>
       </c>
       <c r="B170">
-        <v>948.22999000000004</v>
+        <v>504.71998000000002</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>42853</v>
+        <v>42251</v>
       </c>
       <c r="B171">
-        <v>924.99</v>
+        <v>499</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>42852</v>
+        <v>42255</v>
       </c>
       <c r="B172">
-        <v>918.37989000000005</v>
+        <v>517.54003999999998</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>42851</v>
+        <v>42256</v>
       </c>
       <c r="B173">
-        <v>909.29003999999998</v>
+        <v>516.88990000000001</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>42850</v>
+        <v>42257</v>
       </c>
       <c r="B174">
-        <v>907.62012000000004</v>
+        <v>522.24</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>42849</v>
+        <v>42258</v>
       </c>
       <c r="B175">
-        <v>907.40992000000006</v>
+        <v>529.43994999999995</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>42846</v>
+        <v>42261</v>
       </c>
       <c r="B176">
-        <v>898.53003000000001</v>
+        <v>521.37989000000005</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>42845</v>
+        <v>42262</v>
       </c>
       <c r="B177">
-        <v>902.06006000000002</v>
+        <v>522.37012000000004</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>42844</v>
+        <v>42263</v>
       </c>
       <c r="B178">
-        <v>899.19996000000003</v>
+        <v>527.38990000000001</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>42843</v>
+        <v>42264</v>
       </c>
       <c r="B179">
-        <v>903.78003000000001</v>
+        <v>538.87012000000004</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>42842</v>
+        <v>42265</v>
       </c>
       <c r="B180">
-        <v>901.99</v>
+        <v>540.26000999999997</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>42838</v>
+        <v>42268</v>
       </c>
       <c r="B181">
-        <v>884.66993000000002</v>
+        <v>548.38990000000001</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>42837</v>
+        <v>42269</v>
       </c>
       <c r="B182">
-        <v>896.22999000000004</v>
+        <v>538.39990999999998</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>42836</v>
+        <v>42270</v>
       </c>
       <c r="B183">
-        <v>902.36010999999996</v>
+        <v>536.07006999999999</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>42835</v>
+        <v>42271</v>
       </c>
       <c r="B184">
-        <v>907.04003999999998</v>
+        <v>533.75</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>42832</v>
+        <v>42272</v>
       </c>
       <c r="B185">
-        <v>894.87989000000005</v>
+        <v>524.25</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>42831</v>
+        <v>42275</v>
       </c>
       <c r="B186">
-        <v>898.28003000000001</v>
+        <v>504.06006000000002</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>42830</v>
+        <v>42276</v>
       </c>
       <c r="B187">
-        <v>909.28003000000001</v>
+        <v>496.07006999999999</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>42829</v>
+        <v>42277</v>
       </c>
       <c r="B188">
-        <v>906.83007999999995</v>
+        <v>511.88990000000001</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>42828</v>
+        <v>42278</v>
       </c>
       <c r="B189">
-        <v>891.51000999999997</v>
+        <v>520.71997999999996</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>42825</v>
+        <v>42279</v>
       </c>
       <c r="B190">
-        <v>886.54003999999998</v>
+        <v>532.54003999999998</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>42824</v>
+        <v>42282</v>
       </c>
       <c r="B191">
-        <v>876.34009000000003</v>
+        <v>543.67993999999999</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>42823</v>
+        <v>42283</v>
       </c>
       <c r="B192">
-        <v>874.32006999999999</v>
+        <v>537.47999000000004</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>42822</v>
+        <v>42284</v>
       </c>
       <c r="B193">
-        <v>856</v>
+        <v>541.93994999999995</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>42821</v>
+        <v>42285</v>
       </c>
       <c r="B194">
-        <v>846.82006999999999</v>
+        <v>533.15992000000006</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>42818</v>
+        <v>42286</v>
       </c>
       <c r="B195">
-        <v>845.61010999999996</v>
+        <v>539.80005000000006</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>42817</v>
+        <v>42289</v>
       </c>
       <c r="B196">
-        <v>847.37989000000005</v>
+        <v>550.18994999999995</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>42816</v>
+        <v>42290</v>
       </c>
       <c r="B197">
-        <v>848.06006000000002</v>
+        <v>548.89990999999998</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>42815</v>
+        <v>42291</v>
       </c>
       <c r="B198">
-        <v>843.19996000000003</v>
+        <v>544.83007999999995</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>42814</v>
+        <v>42292</v>
       </c>
       <c r="B199">
-        <v>856.96997999999996</v>
+        <v>562.43994999999995</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>42811</v>
+        <v>42293</v>
       </c>
       <c r="B200">
-        <v>852.31006000000002</v>
+        <v>570.76000999999997</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>42810</v>
+        <v>42296</v>
       </c>
       <c r="B201">
-        <v>853.41993000000002</v>
+        <v>573.14990999999998</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>42809</v>
+        <v>42297</v>
       </c>
       <c r="B202">
-        <v>852.96997999999996</v>
+        <v>560.87989000000005</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>42808</v>
+        <v>42298</v>
       </c>
       <c r="B203">
-        <v>852.53003000000001</v>
+        <v>555.77002000000005</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>42807</v>
+        <v>42299</v>
       </c>
       <c r="B204">
-        <v>854.59009000000003</v>
+        <v>563.90992000000006</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>42804</v>
+        <v>42300</v>
       </c>
       <c r="B205">
-        <v>852.45997</v>
+        <v>599.03003000000001</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>42803</v>
+        <v>42303</v>
       </c>
       <c r="B206">
-        <v>853</v>
+        <v>608.61010999999996</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>42802</v>
+        <v>42304</v>
       </c>
       <c r="B207">
-        <v>850.5</v>
+        <v>611.01000999999997</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>42801</v>
+        <v>42305</v>
       </c>
       <c r="B208">
-        <v>846.02002000000005</v>
+        <v>617.1001</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>42800</v>
+        <v>42306</v>
       </c>
       <c r="B209">
-        <v>846.61010999999996</v>
+        <v>626.55005000000006</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>42797</v>
+        <v>42307</v>
       </c>
       <c r="B210">
-        <v>849.87989000000005</v>
+        <v>625.89990999999998</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>42796</v>
+        <v>42310</v>
       </c>
       <c r="B211">
-        <v>848.90992000000006</v>
+        <v>628.3501</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>42795</v>
+        <v>42311</v>
       </c>
       <c r="B212">
-        <v>853.08007999999995</v>
+        <v>625.31006000000002</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>42794</v>
+        <v>42312</v>
       </c>
       <c r="B213">
-        <v>845.04003999999998</v>
+        <v>640.94996000000003</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>42793</v>
+        <v>42313</v>
       </c>
       <c r="B214">
-        <v>848.63990000000001</v>
+        <v>655.64990999999998</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>42790</v>
+        <v>42314</v>
       </c>
       <c r="B215">
-        <v>845.24</v>
+        <v>659.37012000000004</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>42789</v>
+        <v>42317</v>
       </c>
       <c r="B216">
-        <v>852.18994999999995</v>
+        <v>655.49</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>42788</v>
+        <v>42318</v>
       </c>
       <c r="B217">
-        <v>855.61010999999996</v>
+        <v>659.67993999999999</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>42787</v>
+        <v>42319</v>
       </c>
       <c r="B218">
-        <v>856.43994999999995</v>
+        <v>673.25</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>42783</v>
+        <v>42320</v>
       </c>
       <c r="B219">
-        <v>845.07006999999999</v>
+        <v>665.6001</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>42782</v>
+        <v>42321</v>
       </c>
       <c r="B220">
-        <v>844.13990000000001</v>
+        <v>642.3501</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>42781</v>
+        <v>42324</v>
       </c>
       <c r="B221">
-        <v>842.69996000000003</v>
+        <v>647.81006000000002</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>42780</v>
+        <v>42325</v>
       </c>
       <c r="B222">
-        <v>836.38990000000001</v>
+        <v>643.30005000000006</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>42779</v>
+        <v>42326</v>
       </c>
       <c r="B223">
-        <v>836.53003000000001</v>
+        <v>663.54003999999998</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>42776</v>
+        <v>42327</v>
       </c>
       <c r="B224">
-        <v>827.45997</v>
+        <v>661.27002000000005</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>42775</v>
+        <v>42328</v>
       </c>
       <c r="B225">
-        <v>821.36010999999996</v>
+        <v>668.44996000000003</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>42774</v>
+        <v>42331</v>
       </c>
       <c r="B226">
-        <v>819.70997</v>
+        <v>678.99</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>42773</v>
+        <v>42332</v>
       </c>
       <c r="B227">
-        <v>812.5</v>
+        <v>671.14990999999998</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>42772</v>
+        <v>42333</v>
       </c>
       <c r="B228">
-        <v>807.63990000000001</v>
+        <v>675.34009000000003</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>42769</v>
+        <v>42335</v>
       </c>
       <c r="B229">
-        <v>810.19996000000003</v>
+        <v>673.26000999999997</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>42768</v>
+        <v>42338</v>
       </c>
       <c r="B230">
-        <v>839.94996000000003</v>
+        <v>664.80005000000006</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>42767</v>
+        <v>42339</v>
       </c>
       <c r="B231">
-        <v>832.3501</v>
+        <v>679.06006000000002</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>42766</v>
+        <v>42340</v>
       </c>
       <c r="B232">
-        <v>823.47999000000004</v>
+        <v>676.01000999999997</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>42765</v>
+        <v>42341</v>
       </c>
       <c r="B233">
-        <v>830.37989000000005</v>
+        <v>666.25</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>42762</v>
+        <v>42342</v>
       </c>
       <c r="B234">
-        <v>835.77002000000005</v>
+        <v>672.63990000000001</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>42761</v>
+        <v>42345</v>
       </c>
       <c r="B235">
-        <v>839.14990999999998</v>
+        <v>669.83007999999995</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>42760</v>
+        <v>42346</v>
       </c>
       <c r="B236">
-        <v>836.52002000000005</v>
+        <v>677.33007999999995</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>42759</v>
+        <v>42347</v>
       </c>
       <c r="B237">
-        <v>822.43994999999995</v>
+        <v>664.79003999999998</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>42758</v>
+        <v>42348</v>
       </c>
       <c r="B238">
-        <v>817.87989000000005</v>
+        <v>662.32006999999999</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>42755</v>
+        <v>42349</v>
       </c>
       <c r="B239">
-        <v>808.33007999999995</v>
+        <v>640.14990999999998</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>42754</v>
+        <v>42352</v>
       </c>
       <c r="B240">
-        <v>809.04003999999998</v>
+        <v>657.90992000000006</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>42753</v>
+        <v>42353</v>
       </c>
       <c r="B241">
-        <v>807.47999000000004</v>
+        <v>658.63990000000001</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>42752</v>
+        <v>42354</v>
       </c>
       <c r="B242">
-        <v>809.71997999999996</v>
+        <v>675.77002000000005</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>42748</v>
+        <v>42355</v>
       </c>
       <c r="B243">
-        <v>817.13990000000001</v>
+        <v>670.64990999999998</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>42747</v>
+        <v>42356</v>
       </c>
       <c r="B244">
-        <v>813.63990000000001</v>
+        <v>664.13990000000001</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>42746</v>
+        <v>42359</v>
       </c>
       <c r="B245">
-        <v>799.02002000000005</v>
+        <v>664.51000999999997</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>42745</v>
+        <v>42360</v>
       </c>
       <c r="B246">
-        <v>795.89990999999998</v>
+        <v>663.14990999999998</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>42744</v>
+        <v>42361</v>
       </c>
       <c r="B247">
-        <v>796.91993000000002</v>
+        <v>663.69996000000003</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>42741</v>
+        <v>42362</v>
       </c>
       <c r="B248">
-        <v>795.99</v>
+        <v>662.79003999999998</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>42740</v>
+        <v>42366</v>
       </c>
       <c r="B249">
-        <v>780.44996000000003</v>
+        <v>675.19996000000003</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>42739</v>
+        <v>42367</v>
       </c>
       <c r="B250">
-        <v>757.17993999999999</v>
+        <v>693.96997999999996</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>42738</v>
+        <v>42368</v>
       </c>
       <c r="B251">
-        <v>753.66993000000002</v>
+        <v>689.07006999999999</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>42734</v>
+        <v>42369</v>
       </c>
       <c r="B252">
-        <v>749.87012000000004</v>
+        <v>675.88990000000001</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>42733</v>
+        <v>42373</v>
       </c>
       <c r="B253">
-        <v>765.14990999999998</v>
+        <v>636.99</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>42732</v>
+        <v>42374</v>
       </c>
       <c r="B254">
-        <v>772.12989000000005</v>
+        <v>633.79003999999998</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>42731</v>
+        <v>42375</v>
       </c>
       <c r="B255">
-        <v>771.39990999999998</v>
+        <v>632.64990999999998</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>42727</v>
+        <v>42376</v>
       </c>
       <c r="B256">
-        <v>760.59009000000003</v>
+        <v>607.93994999999995</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>42726</v>
+        <v>42377</v>
       </c>
       <c r="B257">
-        <v>766.34009000000003</v>
+        <v>607.05005000000006</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>42725</v>
+        <v>42380</v>
       </c>
       <c r="B258">
-        <v>770.6001</v>
+        <v>617.74</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>42724</v>
+        <v>42381</v>
       </c>
       <c r="B259">
-        <v>771.21997999999996</v>
+        <v>617.88990000000001</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>42723</v>
+        <v>42382</v>
       </c>
       <c r="B260">
-        <v>766</v>
+        <v>581.81006000000002</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>42720</v>
+        <v>42383</v>
       </c>
       <c r="B261">
-        <v>757.77002000000005</v>
+        <v>593</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>42719</v>
+        <v>42384</v>
       </c>
       <c r="B262">
-        <v>761</v>
+        <v>570.17993999999999</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>42718</v>
+        <v>42388</v>
       </c>
       <c r="B263">
-        <v>768.82006999999999</v>
+        <v>574.47999000000004</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>42717</v>
+        <v>42389</v>
       </c>
       <c r="B264">
-        <v>774.34009000000003</v>
+        <v>571.77002000000005</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>42716</v>
+        <v>42390</v>
       </c>
       <c r="B265">
-        <v>760.12012000000004</v>
+        <v>575.02002000000005</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>42713</v>
+        <v>42391</v>
       </c>
       <c r="B266">
-        <v>768.65992000000006</v>
+        <v>596.37989000000005</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>42712</v>
+        <v>42394</v>
       </c>
       <c r="B267">
-        <v>767.33007999999995</v>
+        <v>596.53003000000001</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>42711</v>
+        <v>42395</v>
       </c>
       <c r="B268">
-        <v>770.41993000000002</v>
+        <v>601.25</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>42710</v>
+        <v>42396</v>
       </c>
       <c r="B269">
-        <v>764.71997999999996</v>
+        <v>583.3501</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>42709</v>
+        <v>42397</v>
       </c>
       <c r="B270">
-        <v>759.36010999999996</v>
+        <v>635.3501</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>42706</v>
+        <v>42398</v>
       </c>
       <c r="B271">
-        <v>740.34009000000003</v>
+        <v>587</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>42705</v>
+        <v>42401</v>
       </c>
       <c r="B272">
-        <v>743.64990999999998</v>
+        <v>574.81006000000002</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>42704</v>
+        <v>42402</v>
       </c>
       <c r="B273">
-        <v>750.57006999999999</v>
+        <v>552.1001</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>42703</v>
+        <v>42403</v>
       </c>
       <c r="B274">
-        <v>762.52002000000005</v>
+        <v>531.07006999999999</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>42702</v>
+        <v>42404</v>
       </c>
       <c r="B275">
-        <v>766.77002000000005</v>
+        <v>536.26000999999997</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>42699</v>
+        <v>42405</v>
       </c>
       <c r="B276">
-        <v>780.37012000000004</v>
+        <v>502.12988999999999</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>42697</v>
+        <v>42408</v>
       </c>
       <c r="B277">
-        <v>780.12012000000004</v>
+        <v>488.1001</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>42696</v>
+        <v>42409</v>
       </c>
       <c r="B278">
-        <v>785.33007999999995</v>
+        <v>482.07006999999999</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>42695</v>
+        <v>42410</v>
       </c>
       <c r="B279">
-        <v>780</v>
+        <v>490.47998999999999</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>42692</v>
+        <v>42411</v>
       </c>
       <c r="B280">
-        <v>760.15992000000006</v>
+        <v>503.82006999999999</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>42691</v>
+        <v>42412</v>
       </c>
       <c r="B281">
-        <v>756.39990999999998</v>
+        <v>507.08008000000001</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>42690</v>
+        <v>42416</v>
       </c>
       <c r="B282">
-        <v>746.49</v>
+        <v>521.1001</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>42689</v>
+        <v>42417</v>
       </c>
       <c r="B283">
-        <v>743.24</v>
+        <v>534.1001</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>42688</v>
+        <v>42418</v>
       </c>
       <c r="B284">
-        <v>719.07006999999999</v>
+        <v>525</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>42685</v>
+        <v>42419</v>
       </c>
       <c r="B285">
-        <v>739.01000999999997</v>
+        <v>534.89990999999998</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>42684</v>
+        <v>42422</v>
       </c>
       <c r="B286">
-        <v>742.37989000000005</v>
+        <v>559.5</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>42683</v>
+        <v>42423</v>
       </c>
       <c r="B287">
-        <v>771.87989000000005</v>
+        <v>552.93994999999995</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>42682</v>
+        <v>42424</v>
       </c>
       <c r="B288">
-        <v>787.75</v>
+        <v>554.04003999999998</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>42681</v>
+        <v>42425</v>
       </c>
       <c r="B289">
-        <v>784.92993999999999</v>
+        <v>555.14990999999998</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>42678</v>
+        <v>42426</v>
       </c>
       <c r="B290">
-        <v>755.05005000000006</v>
+        <v>555.22999000000004</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>42677</v>
+        <v>42429</v>
       </c>
       <c r="B291">
-        <v>767.03003000000001</v>
+        <v>552.52002000000005</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>42676</v>
+        <v>42430</v>
       </c>
       <c r="B292">
-        <v>765.56006000000002</v>
+        <v>579.04003999999998</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>42675</v>
+        <v>42431</v>
       </c>
       <c r="B293">
-        <v>785.40992000000006</v>
+        <v>580.20997</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>42674</v>
+        <v>42432</v>
       </c>
       <c r="B294">
-        <v>789.82006999999999</v>
+        <v>577.49</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>42671</v>
+        <v>42433</v>
       </c>
       <c r="B295">
-        <v>776.32006999999999</v>
+        <v>575.13990000000001</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>42670</v>
+        <v>42436</v>
       </c>
       <c r="B296">
-        <v>818.36010999999996</v>
+        <v>562.80005000000006</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>42669</v>
+        <v>42437</v>
       </c>
       <c r="B297">
-        <v>822.59009000000003</v>
+        <v>560.26000999999997</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>42668</v>
+        <v>42438</v>
       </c>
       <c r="B298">
-        <v>835.17993999999999</v>
+        <v>559.46997999999996</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>42667</v>
+        <v>42439</v>
       </c>
       <c r="B299">
-        <v>838.09009000000003</v>
+        <v>558.92993999999999</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>42664</v>
+        <v>42440</v>
       </c>
       <c r="B300">
-        <v>818.99</v>
+        <v>569.61010999999996</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>42663</v>
+        <v>42443</v>
       </c>
       <c r="B301">
-        <v>810.32006999999999</v>
+        <v>573.37012000000004</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>42662</v>
+        <v>42444</v>
       </c>
       <c r="B302">
-        <v>817.68994999999995</v>
+        <v>577.02002000000005</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>42661</v>
+        <v>42445</v>
       </c>
       <c r="B303">
-        <v>817.64990999999998</v>
+        <v>574.27002000000005</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>42660</v>
+        <v>42446</v>
       </c>
       <c r="B304">
-        <v>812.94996000000003</v>
+        <v>559.43994999999995</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>42657</v>
+        <v>42447</v>
       </c>
       <c r="B305">
-        <v>822.95997</v>
+        <v>552.08007999999995</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>42656</v>
+        <v>42450</v>
       </c>
       <c r="B306">
-        <v>829.28003000000001</v>
+        <v>553.97999000000004</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>42655</v>
+        <v>42451</v>
       </c>
       <c r="B307">
-        <v>834.09009000000003</v>
+        <v>560.47999000000004</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>42654</v>
+        <v>42452</v>
       </c>
       <c r="B308">
-        <v>831</v>
+        <v>569.62989000000005</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>42653</v>
+        <v>42453</v>
       </c>
       <c r="B309">
-        <v>841.70997</v>
+        <v>582.94996000000003</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>42650</v>
+        <v>42457</v>
       </c>
       <c r="B310">
-        <v>839.42993999999999</v>
+        <v>579.87012000000004</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>42649</v>
+        <v>42458</v>
       </c>
       <c r="B311">
-        <v>841.65992000000006</v>
+        <v>593.86010999999996</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>42648</v>
+        <v>42459</v>
       </c>
       <c r="B312">
-        <v>844.36010999999996</v>
+        <v>598.68994999999995</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>42647</v>
+        <v>42460</v>
       </c>
       <c r="B313">
-        <v>834.03003000000001</v>
+        <v>593.63990000000001</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>42646</v>
+        <v>42461</v>
       </c>
       <c r="B314">
-        <v>836.74</v>
+        <v>598.5</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>42643</v>
+        <v>42464</v>
       </c>
       <c r="B315">
-        <v>837.31006000000002</v>
+        <v>593.18994999999995</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>42642</v>
+        <v>42465</v>
       </c>
       <c r="B316">
-        <v>829.05005000000006</v>
+        <v>586.13990000000001</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>42641</v>
+        <v>42466</v>
       </c>
       <c r="B317">
-        <v>828.71997999999996</v>
+        <v>602.08007999999995</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>42640</v>
+        <v>42467</v>
       </c>
       <c r="B318">
-        <v>816.11010999999996</v>
+        <v>591.42993999999999</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>42639</v>
+        <v>42468</v>
       </c>
       <c r="B319">
-        <v>799.15992000000006</v>
+        <v>594.6001</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>42636</v>
+        <v>42471</v>
       </c>
       <c r="B320">
-        <v>805.75</v>
+        <v>595.92993999999999</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>42635</v>
+        <v>42472</v>
       </c>
       <c r="B321">
-        <v>804.69996000000003</v>
+        <v>603.16993000000002</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>42634</v>
+        <v>42473</v>
       </c>
       <c r="B322">
-        <v>789.74</v>
+        <v>614.82006999999999</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>42633</v>
+        <v>42474</v>
       </c>
       <c r="B323">
-        <v>780.21997999999996</v>
+        <v>620.75</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>42632</v>
+        <v>42475</v>
       </c>
       <c r="B324">
-        <v>775.1001</v>
+        <v>625.88990000000001</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>42629</v>
+        <v>42478</v>
       </c>
       <c r="B325">
-        <v>778.52002000000005</v>
+        <v>635.3501</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>42628</v>
+        <v>42479</v>
       </c>
       <c r="B326">
-        <v>769.68994999999995</v>
+        <v>627.89990999999998</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>42627</v>
+        <v>42480</v>
       </c>
       <c r="B327">
-        <v>761.09009000000003</v>
+        <v>632.99</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>42626</v>
+        <v>42481</v>
       </c>
       <c r="B328">
-        <v>761.01000999999997</v>
+        <v>631</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>42625</v>
+        <v>42482</v>
       </c>
       <c r="B329">
-        <v>771.49</v>
+        <v>620.5</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>42622</v>
+        <v>42485</v>
       </c>
       <c r="B330">
-        <v>760.13990000000001</v>
+        <v>626.19996000000003</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>42621</v>
+        <v>42486</v>
       </c>
       <c r="B331">
-        <v>784.06006000000002</v>
+        <v>616.87989000000005</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>42620</v>
+        <v>42487</v>
       </c>
       <c r="B332">
-        <v>784.47999000000004</v>
+        <v>606.57006999999999</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>42619</v>
+        <v>42488</v>
       </c>
       <c r="B333">
-        <v>788.87012000000004</v>
+        <v>602</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>42615</v>
+        <v>42489</v>
       </c>
       <c r="B334">
-        <v>772.43994999999995</v>
+        <v>659.59009000000003</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>42614</v>
+        <v>42492</v>
       </c>
       <c r="B335">
-        <v>770.62012000000004</v>
+        <v>683.8501</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>42613</v>
+        <v>42493</v>
       </c>
       <c r="B336">
-        <v>769.15992000000006</v>
+        <v>671.32006999999999</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>42612</v>
+        <v>42494</v>
       </c>
       <c r="B337">
-        <v>767.58007999999995</v>
+        <v>670.89990999999998</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>42611</v>
+        <v>42495</v>
       </c>
       <c r="B338">
-        <v>771.29003999999998</v>
+        <v>659.09009000000003</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>42608</v>
+        <v>42496</v>
       </c>
       <c r="B339">
-        <v>769</v>
+        <v>673.94996000000003</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>42607</v>
+        <v>42499</v>
       </c>
       <c r="B340">
-        <v>759.21997999999996</v>
+        <v>679.75</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>42606</v>
+        <v>42500</v>
       </c>
       <c r="B341">
-        <v>757.25</v>
+        <v>703.07006999999999</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>42605</v>
+        <v>42501</v>
       </c>
       <c r="B342">
-        <v>762.44996000000003</v>
+        <v>713.22999000000004</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>42604</v>
+        <v>42502</v>
       </c>
       <c r="B343">
-        <v>759.47999000000004</v>
+        <v>717.92993999999999</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>42601</v>
+        <v>42503</v>
       </c>
       <c r="B344">
-        <v>757.31006000000002</v>
+        <v>709.91993000000002</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>42600</v>
+        <v>42506</v>
       </c>
       <c r="B345">
-        <v>764.45997</v>
+        <v>710.65992000000006</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>42599</v>
+        <v>42507</v>
       </c>
       <c r="B346">
-        <v>764.62989000000005</v>
+        <v>695.27002000000005</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>42598</v>
+        <v>42508</v>
       </c>
       <c r="B347">
-        <v>764.04003999999998</v>
+        <v>697.44996000000003</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>42597</v>
+        <v>42509</v>
       </c>
       <c r="B348">
-        <v>768.49</v>
+        <v>698.52002000000005</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>42594</v>
+        <v>42510</v>
       </c>
       <c r="B349">
-        <v>772.56006000000002</v>
+        <v>702.80005000000006</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>42593</v>
+        <v>42513</v>
       </c>
       <c r="B350">
-        <v>771.24</v>
+        <v>696.75</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>42592</v>
+        <v>42514</v>
       </c>
       <c r="B351">
-        <v>768.56006000000002</v>
+        <v>704.19996000000003</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>42591</v>
+        <v>42515</v>
       </c>
       <c r="B352">
-        <v>768.31006000000002</v>
+        <v>708.3501</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>42590</v>
+        <v>42516</v>
       </c>
       <c r="B353">
-        <v>766.56006000000002</v>
+        <v>714.90992000000006</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>42587</v>
+        <v>42517</v>
       </c>
       <c r="B354">
-        <v>765.97999000000004</v>
+        <v>712.24</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>42586</v>
+        <v>42521</v>
       </c>
       <c r="B355">
-        <v>760.77002000000005</v>
+        <v>722.79003999999998</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>42585</v>
+        <v>42522</v>
       </c>
       <c r="B356">
-        <v>754.63990000000001</v>
+        <v>719.43994999999995</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>42584</v>
+        <v>42523</v>
       </c>
       <c r="B357">
-        <v>760.58007999999995</v>
+        <v>728.24</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>42583</v>
+        <v>42524</v>
       </c>
       <c r="B358">
-        <v>767.74</v>
+        <v>725.54003999999998</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>42580</v>
+        <v>42527</v>
       </c>
       <c r="B359">
-        <v>758.81006000000002</v>
+        <v>726.72999000000004</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>42579</v>
+        <v>42528</v>
       </c>
       <c r="B360">
-        <v>752.61010999999996</v>
+        <v>723.74</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>42578</v>
+        <v>42529</v>
       </c>
       <c r="B361">
-        <v>736.66993000000002</v>
+        <v>726.63990000000001</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>42577</v>
+        <v>42530</v>
       </c>
       <c r="B362">
-        <v>735.59009000000003</v>
+        <v>727.64990999999998</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>42576</v>
+        <v>42531</v>
       </c>
       <c r="B363">
-        <v>739.61010999999996</v>
+        <v>717.90992000000006</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>42573</v>
+        <v>42534</v>
       </c>
       <c r="B364">
-        <v>744.86010999999996</v>
+        <v>715.24</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>42572</v>
+        <v>42535</v>
       </c>
       <c r="B365">
-        <v>744.42993999999999</v>
+        <v>719.30005000000006</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>42571</v>
+        <v>42536</v>
       </c>
       <c r="B366">
-        <v>745.71997999999996</v>
+        <v>714.26000999999997</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>42570</v>
+        <v>42537</v>
       </c>
       <c r="B367">
-        <v>739.94996000000003</v>
+        <v>717.51000999999997</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>42569</v>
+        <v>42538</v>
       </c>
       <c r="B368">
-        <v>736.07006999999999</v>
+        <v>706.38990000000001</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>42566</v>
+        <v>42541</v>
       </c>
       <c r="B369">
-        <v>735.43994999999995</v>
+        <v>714.01000999999997</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>42565</v>
+        <v>42542</v>
       </c>
       <c r="B370">
-        <v>741.19996000000003</v>
+        <v>715.82006999999999</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>42564</v>
+        <v>42543</v>
       </c>
       <c r="B371">
-        <v>742.62989000000005</v>
+        <v>710.6001</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>42563</v>
+        <v>42544</v>
       </c>
       <c r="B372">
-        <v>748.20997</v>
+        <v>722.08007999999995</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>42562</v>
+        <v>42545</v>
       </c>
       <c r="B373">
-        <v>753.78003000000001</v>
+        <v>698.95997</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>42559</v>
+        <v>42548</v>
       </c>
       <c r="B374">
-        <v>745.81006000000002</v>
+        <v>691.36010999999996</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>42558</v>
+        <v>42549</v>
       </c>
       <c r="B375">
-        <v>736.57006999999999</v>
+        <v>707.94996000000003</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>42557</v>
+        <v>42550</v>
       </c>
       <c r="B376">
-        <v>737.61010999999996</v>
+        <v>715.6001</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>42556</v>
+        <v>42551</v>
       </c>
       <c r="B377">
-        <v>728.1001</v>
+        <v>715.62012000000004</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -3432,3023 +3432,3023 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>42551</v>
+        <v>42556</v>
       </c>
       <c r="B379">
-        <v>715.62012000000004</v>
+        <v>728.1001</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>42550</v>
+        <v>42557</v>
       </c>
       <c r="B380">
-        <v>715.6001</v>
+        <v>737.61010999999996</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>42549</v>
+        <v>42558</v>
       </c>
       <c r="B381">
-        <v>707.94996000000003</v>
+        <v>736.57006999999999</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>42548</v>
+        <v>42559</v>
       </c>
       <c r="B382">
-        <v>691.36010999999996</v>
+        <v>745.81006000000002</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>42545</v>
+        <v>42562</v>
       </c>
       <c r="B383">
-        <v>698.95997</v>
+        <v>753.78003000000001</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>42544</v>
+        <v>42563</v>
       </c>
       <c r="B384">
-        <v>722.08007999999995</v>
+        <v>748.20997</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>42543</v>
+        <v>42564</v>
       </c>
       <c r="B385">
-        <v>710.6001</v>
+        <v>742.62989000000005</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>42542</v>
+        <v>42565</v>
       </c>
       <c r="B386">
-        <v>715.82006999999999</v>
+        <v>741.19996000000003</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>42541</v>
+        <v>42566</v>
       </c>
       <c r="B387">
-        <v>714.01000999999997</v>
+        <v>735.43994999999995</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>42538</v>
+        <v>42569</v>
       </c>
       <c r="B388">
-        <v>706.38990000000001</v>
+        <v>736.07006999999999</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>42537</v>
+        <v>42570</v>
       </c>
       <c r="B389">
-        <v>717.51000999999997</v>
+        <v>739.94996000000003</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>42536</v>
+        <v>42571</v>
       </c>
       <c r="B390">
-        <v>714.26000999999997</v>
+        <v>745.71997999999996</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>42535</v>
+        <v>42572</v>
       </c>
       <c r="B391">
-        <v>719.30005000000006</v>
+        <v>744.42993999999999</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>42534</v>
+        <v>42573</v>
       </c>
       <c r="B392">
-        <v>715.24</v>
+        <v>744.86010999999996</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>42531</v>
+        <v>42576</v>
       </c>
       <c r="B393">
-        <v>717.90992000000006</v>
+        <v>739.61010999999996</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>42530</v>
+        <v>42577</v>
       </c>
       <c r="B394">
-        <v>727.64990999999998</v>
+        <v>735.59009000000003</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>42529</v>
+        <v>42578</v>
       </c>
       <c r="B395">
-        <v>726.63990000000001</v>
+        <v>736.66993000000002</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>42528</v>
+        <v>42579</v>
       </c>
       <c r="B396">
-        <v>723.74</v>
+        <v>752.61010999999996</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>42527</v>
+        <v>42580</v>
       </c>
       <c r="B397">
-        <v>726.72999000000004</v>
+        <v>758.81006000000002</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>42524</v>
+        <v>42583</v>
       </c>
       <c r="B398">
-        <v>725.54003999999998</v>
+        <v>767.74</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>42523</v>
+        <v>42584</v>
       </c>
       <c r="B399">
-        <v>728.24</v>
+        <v>760.58007999999995</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>42522</v>
+        <v>42585</v>
       </c>
       <c r="B400">
-        <v>719.43994999999995</v>
+        <v>754.63990000000001</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>42521</v>
+        <v>42586</v>
       </c>
       <c r="B401">
-        <v>722.79003999999998</v>
+        <v>760.77002000000005</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>42517</v>
+        <v>42587</v>
       </c>
       <c r="B402">
-        <v>712.24</v>
+        <v>765.97999000000004</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>42516</v>
+        <v>42590</v>
       </c>
       <c r="B403">
-        <v>714.90992000000006</v>
+        <v>766.56006000000002</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>42515</v>
+        <v>42591</v>
       </c>
       <c r="B404">
-        <v>708.3501</v>
+        <v>768.31006000000002</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>42514</v>
+        <v>42592</v>
       </c>
       <c r="B405">
-        <v>704.19996000000003</v>
+        <v>768.56006000000002</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>42513</v>
+        <v>42593</v>
       </c>
       <c r="B406">
-        <v>696.75</v>
+        <v>771.24</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>42510</v>
+        <v>42594</v>
       </c>
       <c r="B407">
-        <v>702.80005000000006</v>
+        <v>772.56006000000002</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>42509</v>
+        <v>42597</v>
       </c>
       <c r="B408">
-        <v>698.52002000000005</v>
+        <v>768.49</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>42508</v>
+        <v>42598</v>
       </c>
       <c r="B409">
-        <v>697.44996000000003</v>
+        <v>764.04003999999998</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>42507</v>
+        <v>42599</v>
       </c>
       <c r="B410">
-        <v>695.27002000000005</v>
+        <v>764.62989000000005</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>42506</v>
+        <v>42600</v>
       </c>
       <c r="B411">
-        <v>710.65992000000006</v>
+        <v>764.45997</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>42503</v>
+        <v>42601</v>
       </c>
       <c r="B412">
-        <v>709.91993000000002</v>
+        <v>757.31006000000002</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>42502</v>
+        <v>42604</v>
       </c>
       <c r="B413">
-        <v>717.92993999999999</v>
+        <v>759.47999000000004</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>42501</v>
+        <v>42605</v>
       </c>
       <c r="B414">
-        <v>713.22999000000004</v>
+        <v>762.44996000000003</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>42500</v>
+        <v>42606</v>
       </c>
       <c r="B415">
-        <v>703.07006999999999</v>
+        <v>757.25</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>42499</v>
+        <v>42607</v>
       </c>
       <c r="B416">
-        <v>679.75</v>
+        <v>759.21997999999996</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>42496</v>
+        <v>42608</v>
       </c>
       <c r="B417">
-        <v>673.94996000000003</v>
+        <v>769</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>42495</v>
+        <v>42611</v>
       </c>
       <c r="B418">
-        <v>659.09009000000003</v>
+        <v>771.29003999999998</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>42494</v>
+        <v>42612</v>
       </c>
       <c r="B419">
-        <v>670.89990999999998</v>
+        <v>767.58007999999995</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>42493</v>
+        <v>42613</v>
       </c>
       <c r="B420">
-        <v>671.32006999999999</v>
+        <v>769.15992000000006</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>42492</v>
+        <v>42614</v>
       </c>
       <c r="B421">
-        <v>683.8501</v>
+        <v>770.62012000000004</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>42489</v>
+        <v>42615</v>
       </c>
       <c r="B422">
-        <v>659.59009000000003</v>
+        <v>772.43994999999995</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>42488</v>
+        <v>42619</v>
       </c>
       <c r="B423">
-        <v>602</v>
+        <v>788.87012000000004</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>42487</v>
+        <v>42620</v>
       </c>
       <c r="B424">
-        <v>606.57006999999999</v>
+        <v>784.47999000000004</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>42486</v>
+        <v>42621</v>
       </c>
       <c r="B425">
-        <v>616.87989000000005</v>
+        <v>784.06006000000002</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>42485</v>
+        <v>42622</v>
       </c>
       <c r="B426">
-        <v>626.19996000000003</v>
+        <v>760.13990000000001</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>42482</v>
+        <v>42625</v>
       </c>
       <c r="B427">
-        <v>620.5</v>
+        <v>771.49</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>42481</v>
+        <v>42626</v>
       </c>
       <c r="B428">
-        <v>631</v>
+        <v>761.01000999999997</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>42480</v>
+        <v>42627</v>
       </c>
       <c r="B429">
-        <v>632.99</v>
+        <v>761.09009000000003</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>42479</v>
+        <v>42628</v>
       </c>
       <c r="B430">
-        <v>627.89990999999998</v>
+        <v>769.68994999999995</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>42478</v>
+        <v>42629</v>
       </c>
       <c r="B431">
-        <v>635.3501</v>
+        <v>778.52002000000005</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>42475</v>
+        <v>42632</v>
       </c>
       <c r="B432">
-        <v>625.88990000000001</v>
+        <v>775.1001</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>42474</v>
+        <v>42633</v>
       </c>
       <c r="B433">
-        <v>620.75</v>
+        <v>780.21997999999996</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>42473</v>
+        <v>42634</v>
       </c>
       <c r="B434">
-        <v>614.82006999999999</v>
+        <v>789.74</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>42472</v>
+        <v>42635</v>
       </c>
       <c r="B435">
-        <v>603.16993000000002</v>
+        <v>804.69996000000003</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>42471</v>
+        <v>42636</v>
       </c>
       <c r="B436">
-        <v>595.92993999999999</v>
+        <v>805.75</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>42468</v>
+        <v>42639</v>
       </c>
       <c r="B437">
-        <v>594.6001</v>
+        <v>799.15992000000006</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>42467</v>
+        <v>42640</v>
       </c>
       <c r="B438">
-        <v>591.42993999999999</v>
+        <v>816.11010999999996</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>42466</v>
+        <v>42641</v>
       </c>
       <c r="B439">
-        <v>602.08007999999995</v>
+        <v>828.71997999999996</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>42465</v>
+        <v>42642</v>
       </c>
       <c r="B440">
-        <v>586.13990000000001</v>
+        <v>829.05005000000006</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>42464</v>
+        <v>42643</v>
       </c>
       <c r="B441">
-        <v>593.18994999999995</v>
+        <v>837.31006000000002</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>42461</v>
+        <v>42646</v>
       </c>
       <c r="B442">
-        <v>598.5</v>
+        <v>836.74</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>42460</v>
+        <v>42647</v>
       </c>
       <c r="B443">
-        <v>593.63990000000001</v>
+        <v>834.03003000000001</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>42459</v>
+        <v>42648</v>
       </c>
       <c r="B444">
-        <v>598.68994999999995</v>
+        <v>844.36010999999996</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>42458</v>
+        <v>42649</v>
       </c>
       <c r="B445">
-        <v>593.86010999999996</v>
+        <v>841.65992000000006</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>42457</v>
+        <v>42650</v>
       </c>
       <c r="B446">
-        <v>579.87012000000004</v>
+        <v>839.42993999999999</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>42453</v>
+        <v>42653</v>
       </c>
       <c r="B447">
-        <v>582.94996000000003</v>
+        <v>841.70997</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>42452</v>
+        <v>42654</v>
       </c>
       <c r="B448">
-        <v>569.62989000000005</v>
+        <v>831</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>42451</v>
+        <v>42655</v>
       </c>
       <c r="B449">
-        <v>560.47999000000004</v>
+        <v>834.09009000000003</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>42450</v>
+        <v>42656</v>
       </c>
       <c r="B450">
-        <v>553.97999000000004</v>
+        <v>829.28003000000001</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>42447</v>
+        <v>42657</v>
       </c>
       <c r="B451">
-        <v>552.08007999999995</v>
+        <v>822.95997</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>42446</v>
+        <v>42660</v>
       </c>
       <c r="B452">
-        <v>559.43994999999995</v>
+        <v>812.94996000000003</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>42445</v>
+        <v>42661</v>
       </c>
       <c r="B453">
-        <v>574.27002000000005</v>
+        <v>817.64990999999998</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>42444</v>
+        <v>42662</v>
       </c>
       <c r="B454">
-        <v>577.02002000000005</v>
+        <v>817.68994999999995</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>42443</v>
+        <v>42663</v>
       </c>
       <c r="B455">
-        <v>573.37012000000004</v>
+        <v>810.32006999999999</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>42440</v>
+        <v>42664</v>
       </c>
       <c r="B456">
-        <v>569.61010999999996</v>
+        <v>818.99</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>42439</v>
+        <v>42667</v>
       </c>
       <c r="B457">
-        <v>558.92993999999999</v>
+        <v>838.09009000000003</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>42438</v>
+        <v>42668</v>
       </c>
       <c r="B458">
-        <v>559.46997999999996</v>
+        <v>835.17993999999999</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>42437</v>
+        <v>42669</v>
       </c>
       <c r="B459">
-        <v>560.26000999999997</v>
+        <v>822.59009000000003</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>42436</v>
+        <v>42670</v>
       </c>
       <c r="B460">
-        <v>562.80005000000006</v>
+        <v>818.36010999999996</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>42433</v>
+        <v>42671</v>
       </c>
       <c r="B461">
-        <v>575.13990000000001</v>
+        <v>776.32006999999999</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>42432</v>
+        <v>42674</v>
       </c>
       <c r="B462">
-        <v>577.49</v>
+        <v>789.82006999999999</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>42431</v>
+        <v>42675</v>
       </c>
       <c r="B463">
-        <v>580.20997</v>
+        <v>785.40992000000006</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>42430</v>
+        <v>42676</v>
       </c>
       <c r="B464">
-        <v>579.04003999999998</v>
+        <v>765.56006000000002</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>42429</v>
+        <v>42677</v>
       </c>
       <c r="B465">
-        <v>552.52002000000005</v>
+        <v>767.03003000000001</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>42426</v>
+        <v>42678</v>
       </c>
       <c r="B466">
-        <v>555.22999000000004</v>
+        <v>755.05005000000006</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>42425</v>
+        <v>42681</v>
       </c>
       <c r="B467">
-        <v>555.14990999999998</v>
+        <v>784.92993999999999</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>42424</v>
+        <v>42682</v>
       </c>
       <c r="B468">
-        <v>554.04003999999998</v>
+        <v>787.75</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>42423</v>
+        <v>42683</v>
       </c>
       <c r="B469">
-        <v>552.93994999999995</v>
+        <v>771.87989000000005</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>42422</v>
+        <v>42684</v>
       </c>
       <c r="B470">
-        <v>559.5</v>
+        <v>742.37989000000005</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>42419</v>
+        <v>42685</v>
       </c>
       <c r="B471">
-        <v>534.89990999999998</v>
+        <v>739.01000999999997</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>42418</v>
+        <v>42688</v>
       </c>
       <c r="B472">
-        <v>525</v>
+        <v>719.07006999999999</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>42417</v>
+        <v>42689</v>
       </c>
       <c r="B473">
-        <v>534.1001</v>
+        <v>743.24</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>42416</v>
+        <v>42690</v>
       </c>
       <c r="B474">
-        <v>521.1001</v>
+        <v>746.49</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>42412</v>
+        <v>42691</v>
       </c>
       <c r="B475">
-        <v>507.08008000000001</v>
+        <v>756.39990999999998</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>42411</v>
+        <v>42692</v>
       </c>
       <c r="B476">
-        <v>503.82006999999999</v>
+        <v>760.15992000000006</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>42410</v>
+        <v>42695</v>
       </c>
       <c r="B477">
-        <v>490.47998999999999</v>
+        <v>780</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>42409</v>
+        <v>42696</v>
       </c>
       <c r="B478">
-        <v>482.07006999999999</v>
+        <v>785.33007999999995</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>42408</v>
+        <v>42697</v>
       </c>
       <c r="B479">
-        <v>488.1001</v>
+        <v>780.12012000000004</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>42405</v>
+        <v>42699</v>
       </c>
       <c r="B480">
-        <v>502.12988999999999</v>
+        <v>780.37012000000004</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>42404</v>
+        <v>42702</v>
       </c>
       <c r="B481">
-        <v>536.26000999999997</v>
+        <v>766.77002000000005</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>42403</v>
+        <v>42703</v>
       </c>
       <c r="B482">
-        <v>531.07006999999999</v>
+        <v>762.52002000000005</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>42402</v>
+        <v>42704</v>
       </c>
       <c r="B483">
-        <v>552.1001</v>
+        <v>750.57006999999999</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>42401</v>
+        <v>42705</v>
       </c>
       <c r="B484">
-        <v>574.81006000000002</v>
+        <v>743.64990999999998</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>42398</v>
+        <v>42706</v>
       </c>
       <c r="B485">
-        <v>587</v>
+        <v>740.34009000000003</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>42397</v>
+        <v>42709</v>
       </c>
       <c r="B486">
-        <v>635.3501</v>
+        <v>759.36010999999996</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>42396</v>
+        <v>42710</v>
       </c>
       <c r="B487">
-        <v>583.3501</v>
+        <v>764.71997999999996</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>42395</v>
+        <v>42711</v>
       </c>
       <c r="B488">
-        <v>601.25</v>
+        <v>770.41993000000002</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>42394</v>
+        <v>42712</v>
       </c>
       <c r="B489">
-        <v>596.53003000000001</v>
+        <v>767.33007999999995</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>42391</v>
+        <v>42713</v>
       </c>
       <c r="B490">
-        <v>596.37989000000005</v>
+        <v>768.65992000000006</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>42390</v>
+        <v>42716</v>
       </c>
       <c r="B491">
-        <v>575.02002000000005</v>
+        <v>760.12012000000004</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>42389</v>
+        <v>42717</v>
       </c>
       <c r="B492">
-        <v>571.77002000000005</v>
+        <v>774.34009000000003</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>42388</v>
+        <v>42718</v>
       </c>
       <c r="B493">
-        <v>574.47999000000004</v>
+        <v>768.82006999999999</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>42384</v>
+        <v>42719</v>
       </c>
       <c r="B494">
-        <v>570.17993999999999</v>
+        <v>761</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>42383</v>
+        <v>42720</v>
       </c>
       <c r="B495">
-        <v>593</v>
+        <v>757.77002000000005</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>42382</v>
+        <v>42723</v>
       </c>
       <c r="B496">
-        <v>581.81006000000002</v>
+        <v>766</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>42381</v>
+        <v>42724</v>
       </c>
       <c r="B497">
-        <v>617.88990000000001</v>
+        <v>771.21997999999996</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>42380</v>
+        <v>42725</v>
       </c>
       <c r="B498">
-        <v>617.74</v>
+        <v>770.6001</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>42377</v>
+        <v>42726</v>
       </c>
       <c r="B499">
-        <v>607.05005000000006</v>
+        <v>766.34009000000003</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>42376</v>
+        <v>42727</v>
       </c>
       <c r="B500">
-        <v>607.93994999999995</v>
+        <v>760.59009000000003</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>42375</v>
+        <v>42731</v>
       </c>
       <c r="B501">
-        <v>632.64990999999998</v>
+        <v>771.39990999999998</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>42374</v>
+        <v>42732</v>
       </c>
       <c r="B502">
-        <v>633.79003999999998</v>
+        <v>772.12989000000005</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>42373</v>
+        <v>42733</v>
       </c>
       <c r="B503">
-        <v>636.99</v>
+        <v>765.14990999999998</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>42369</v>
+        <v>42734</v>
       </c>
       <c r="B504">
-        <v>675.88990000000001</v>
+        <v>749.87012000000004</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>42368</v>
+        <v>42738</v>
       </c>
       <c r="B505">
-        <v>689.07006999999999</v>
+        <v>753.66993000000002</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>42367</v>
+        <v>42739</v>
       </c>
       <c r="B506">
-        <v>693.96997999999996</v>
+        <v>757.17993999999999</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>42366</v>
+        <v>42740</v>
       </c>
       <c r="B507">
-        <v>675.19996000000003</v>
+        <v>780.44996000000003</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>42362</v>
+        <v>42741</v>
       </c>
       <c r="B508">
-        <v>662.79003999999998</v>
+        <v>795.99</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>42361</v>
+        <v>42744</v>
       </c>
       <c r="B509">
-        <v>663.69996000000003</v>
+        <v>796.91993000000002</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>42360</v>
+        <v>42745</v>
       </c>
       <c r="B510">
-        <v>663.14990999999998</v>
+        <v>795.89990999999998</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>42359</v>
+        <v>42746</v>
       </c>
       <c r="B511">
-        <v>664.51000999999997</v>
+        <v>799.02002000000005</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>42356</v>
+        <v>42747</v>
       </c>
       <c r="B512">
-        <v>664.13990000000001</v>
+        <v>813.63990000000001</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>42355</v>
+        <v>42748</v>
       </c>
       <c r="B513">
-        <v>670.64990999999998</v>
+        <v>817.13990000000001</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>42354</v>
+        <v>42752</v>
       </c>
       <c r="B514">
-        <v>675.77002000000005</v>
+        <v>809.71997999999996</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>42353</v>
+        <v>42753</v>
       </c>
       <c r="B515">
-        <v>658.63990000000001</v>
+        <v>807.47999000000004</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>42352</v>
+        <v>42754</v>
       </c>
       <c r="B516">
-        <v>657.90992000000006</v>
+        <v>809.04003999999998</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>42349</v>
+        <v>42755</v>
       </c>
       <c r="B517">
-        <v>640.14990999999998</v>
+        <v>808.33007999999995</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>42348</v>
+        <v>42758</v>
       </c>
       <c r="B518">
-        <v>662.32006999999999</v>
+        <v>817.87989000000005</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>42347</v>
+        <v>42759</v>
       </c>
       <c r="B519">
-        <v>664.79003999999998</v>
+        <v>822.43994999999995</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>42346</v>
+        <v>42760</v>
       </c>
       <c r="B520">
-        <v>677.33007999999995</v>
+        <v>836.52002000000005</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>42345</v>
+        <v>42761</v>
       </c>
       <c r="B521">
-        <v>669.83007999999995</v>
+        <v>839.14990999999998</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>42342</v>
+        <v>42762</v>
       </c>
       <c r="B522">
-        <v>672.63990000000001</v>
+        <v>835.77002000000005</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>42341</v>
+        <v>42765</v>
       </c>
       <c r="B523">
-        <v>666.25</v>
+        <v>830.37989000000005</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>42340</v>
+        <v>42766</v>
       </c>
       <c r="B524">
-        <v>676.01000999999997</v>
+        <v>823.47999000000004</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>42339</v>
+        <v>42767</v>
       </c>
       <c r="B525">
-        <v>679.06006000000002</v>
+        <v>832.3501</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>42338</v>
+        <v>42768</v>
       </c>
       <c r="B526">
-        <v>664.80005000000006</v>
+        <v>839.94996000000003</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>42335</v>
+        <v>42769</v>
       </c>
       <c r="B527">
-        <v>673.26000999999997</v>
+        <v>810.19996000000003</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>42333</v>
+        <v>42772</v>
       </c>
       <c r="B528">
-        <v>675.34009000000003</v>
+        <v>807.63990000000001</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>42332</v>
+        <v>42773</v>
       </c>
       <c r="B529">
-        <v>671.14990999999998</v>
+        <v>812.5</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>42331</v>
+        <v>42774</v>
       </c>
       <c r="B530">
-        <v>678.99</v>
+        <v>819.70997</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>42328</v>
+        <v>42775</v>
       </c>
       <c r="B531">
-        <v>668.44996000000003</v>
+        <v>821.36010999999996</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>42327</v>
+        <v>42776</v>
       </c>
       <c r="B532">
-        <v>661.27002000000005</v>
+        <v>827.45997</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>42326</v>
+        <v>42779</v>
       </c>
       <c r="B533">
-        <v>663.54003999999998</v>
+        <v>836.53003000000001</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>42325</v>
+        <v>42780</v>
       </c>
       <c r="B534">
-        <v>643.30005000000006</v>
+        <v>836.38990000000001</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>42324</v>
+        <v>42781</v>
       </c>
       <c r="B535">
-        <v>647.81006000000002</v>
+        <v>842.69996000000003</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>42321</v>
+        <v>42782</v>
       </c>
       <c r="B536">
-        <v>642.3501</v>
+        <v>844.13990000000001</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>42320</v>
+        <v>42783</v>
       </c>
       <c r="B537">
-        <v>665.6001</v>
+        <v>845.07006999999999</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>42319</v>
+        <v>42787</v>
       </c>
       <c r="B538">
-        <v>673.25</v>
+        <v>856.43994999999995</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>42318</v>
+        <v>42788</v>
       </c>
       <c r="B539">
-        <v>659.67993999999999</v>
+        <v>855.61010999999996</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>42317</v>
+        <v>42789</v>
       </c>
       <c r="B540">
-        <v>655.49</v>
+        <v>852.18994999999995</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>42314</v>
+        <v>42790</v>
       </c>
       <c r="B541">
-        <v>659.37012000000004</v>
+        <v>845.24</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>42313</v>
+        <v>42793</v>
       </c>
       <c r="B542">
-        <v>655.64990999999998</v>
+        <v>848.63990000000001</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>42312</v>
+        <v>42794</v>
       </c>
       <c r="B543">
-        <v>640.94996000000003</v>
+        <v>845.04003999999998</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>42311</v>
+        <v>42795</v>
       </c>
       <c r="B544">
-        <v>625.31006000000002</v>
+        <v>853.08007999999995</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>42310</v>
+        <v>42796</v>
       </c>
       <c r="B545">
-        <v>628.3501</v>
+        <v>848.90992000000006</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>42307</v>
+        <v>42797</v>
       </c>
       <c r="B546">
-        <v>625.89990999999998</v>
+        <v>849.87989000000005</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>42306</v>
+        <v>42800</v>
       </c>
       <c r="B547">
-        <v>626.55005000000006</v>
+        <v>846.61010999999996</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>42305</v>
+        <v>42801</v>
       </c>
       <c r="B548">
-        <v>617.1001</v>
+        <v>846.02002000000005</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>42304</v>
+        <v>42802</v>
       </c>
       <c r="B549">
-        <v>611.01000999999997</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>42303</v>
+        <v>42803</v>
       </c>
       <c r="B550">
-        <v>608.61010999999996</v>
+        <v>853</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>42300</v>
+        <v>42804</v>
       </c>
       <c r="B551">
-        <v>599.03003000000001</v>
+        <v>852.45997</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>42299</v>
+        <v>42807</v>
       </c>
       <c r="B552">
-        <v>563.90992000000006</v>
+        <v>854.59009000000003</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>42298</v>
+        <v>42808</v>
       </c>
       <c r="B553">
-        <v>555.77002000000005</v>
+        <v>852.53003000000001</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>42297</v>
+        <v>42809</v>
       </c>
       <c r="B554">
-        <v>560.87989000000005</v>
+        <v>852.96997999999996</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>42296</v>
+        <v>42810</v>
       </c>
       <c r="B555">
-        <v>573.14990999999998</v>
+        <v>853.41993000000002</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>42293</v>
+        <v>42811</v>
       </c>
       <c r="B556">
-        <v>570.76000999999997</v>
+        <v>852.31006000000002</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>42292</v>
+        <v>42814</v>
       </c>
       <c r="B557">
-        <v>562.43994999999995</v>
+        <v>856.96997999999996</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>42291</v>
+        <v>42815</v>
       </c>
       <c r="B558">
-        <v>544.83007999999995</v>
+        <v>843.19996000000003</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>42290</v>
+        <v>42816</v>
       </c>
       <c r="B559">
-        <v>548.89990999999998</v>
+        <v>848.06006000000002</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>42289</v>
+        <v>42817</v>
       </c>
       <c r="B560">
-        <v>550.18994999999995</v>
+        <v>847.37989000000005</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>42286</v>
+        <v>42818</v>
       </c>
       <c r="B561">
-        <v>539.80005000000006</v>
+        <v>845.61010999999996</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>42285</v>
+        <v>42821</v>
       </c>
       <c r="B562">
-        <v>533.15992000000006</v>
+        <v>846.82006999999999</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>42284</v>
+        <v>42822</v>
       </c>
       <c r="B563">
-        <v>541.93994999999995</v>
+        <v>856</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>42283</v>
+        <v>42823</v>
       </c>
       <c r="B564">
-        <v>537.47999000000004</v>
+        <v>874.32006999999999</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>42282</v>
+        <v>42824</v>
       </c>
       <c r="B565">
-        <v>543.67993999999999</v>
+        <v>876.34009000000003</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>42279</v>
+        <v>42825</v>
       </c>
       <c r="B566">
-        <v>532.54003999999998</v>
+        <v>886.54003999999998</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>42278</v>
+        <v>42828</v>
       </c>
       <c r="B567">
-        <v>520.71997999999996</v>
+        <v>891.51000999999997</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>42277</v>
+        <v>42829</v>
       </c>
       <c r="B568">
-        <v>511.88990000000001</v>
+        <v>906.83007999999995</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>42276</v>
+        <v>42830</v>
       </c>
       <c r="B569">
-        <v>496.07006999999999</v>
+        <v>909.28003000000001</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>42275</v>
+        <v>42831</v>
       </c>
       <c r="B570">
-        <v>504.06006000000002</v>
+        <v>898.28003000000001</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>42272</v>
+        <v>42832</v>
       </c>
       <c r="B571">
-        <v>524.25</v>
+        <v>894.87989000000005</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>42271</v>
+        <v>42835</v>
       </c>
       <c r="B572">
-        <v>533.75</v>
+        <v>907.04003999999998</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>42270</v>
+        <v>42836</v>
       </c>
       <c r="B573">
-        <v>536.07006999999999</v>
+        <v>902.36010999999996</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>42269</v>
+        <v>42837</v>
       </c>
       <c r="B574">
-        <v>538.39990999999998</v>
+        <v>896.22999000000004</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>42268</v>
+        <v>42838</v>
       </c>
       <c r="B575">
-        <v>548.38990000000001</v>
+        <v>884.66993000000002</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>42265</v>
+        <v>42842</v>
       </c>
       <c r="B576">
-        <v>540.26000999999997</v>
+        <v>901.99</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>42264</v>
+        <v>42843</v>
       </c>
       <c r="B577">
-        <v>538.87012000000004</v>
+        <v>903.78003000000001</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>42263</v>
+        <v>42844</v>
       </c>
       <c r="B578">
-        <v>527.38990000000001</v>
+        <v>899.19996000000003</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>42262</v>
+        <v>42845</v>
       </c>
       <c r="B579">
-        <v>522.37012000000004</v>
+        <v>902.06006000000002</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>42261</v>
+        <v>42846</v>
       </c>
       <c r="B580">
-        <v>521.37989000000005</v>
+        <v>898.53003000000001</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>42258</v>
+        <v>42849</v>
       </c>
       <c r="B581">
-        <v>529.43994999999995</v>
+        <v>907.40992000000006</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>42257</v>
+        <v>42850</v>
       </c>
       <c r="B582">
-        <v>522.24</v>
+        <v>907.62012000000004</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>42256</v>
+        <v>42851</v>
       </c>
       <c r="B583">
-        <v>516.88990000000001</v>
+        <v>909.29003999999998</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>42255</v>
+        <v>42852</v>
       </c>
       <c r="B584">
-        <v>517.54003999999998</v>
+        <v>918.37989000000005</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>42251</v>
+        <v>42853</v>
       </c>
       <c r="B585">
-        <v>499</v>
+        <v>924.99</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>42250</v>
+        <v>42856</v>
       </c>
       <c r="B586">
-        <v>504.71998000000002</v>
+        <v>948.22999000000004</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>42249</v>
+        <v>42857</v>
       </c>
       <c r="B587">
-        <v>510.55005</v>
+        <v>946.93994999999995</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>42248</v>
+        <v>42858</v>
       </c>
       <c r="B588">
-        <v>496.54003999999998</v>
+        <v>941.03003000000001</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>42247</v>
+        <v>42859</v>
       </c>
       <c r="B589">
-        <v>512.88990000000001</v>
+        <v>937.53003000000001</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>42244</v>
+        <v>42860</v>
       </c>
       <c r="B590">
-        <v>518.01000999999997</v>
+        <v>934.14990999999998</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>42243</v>
+        <v>42863</v>
       </c>
       <c r="B591">
-        <v>518.37012000000004</v>
+        <v>949.04003999999998</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>42242</v>
+        <v>42864</v>
       </c>
       <c r="B592">
-        <v>500.77001999999999</v>
+        <v>952.82006999999999</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>42241</v>
+        <v>42865</v>
       </c>
       <c r="B593">
-        <v>466.37011999999999</v>
+        <v>948.94996000000003</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>42240</v>
+        <v>42866</v>
       </c>
       <c r="B594">
-        <v>463.37011999999999</v>
+        <v>947.62012000000004</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>42237</v>
+        <v>42867</v>
       </c>
       <c r="B595">
-        <v>494.46998000000002</v>
+        <v>961.3501</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>42236</v>
+        <v>42870</v>
       </c>
       <c r="B596">
-        <v>515.78003000000001</v>
+        <v>957.96997999999996</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>42235</v>
+        <v>42871</v>
       </c>
       <c r="B597">
-        <v>532.91993000000002</v>
+        <v>966.07006999999999</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>42234</v>
+        <v>42872</v>
       </c>
       <c r="B598">
-        <v>535.02002000000005</v>
+        <v>944.76000999999997</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>42233</v>
+        <v>42873</v>
       </c>
       <c r="B599">
-        <v>535.21997999999996</v>
+        <v>958.49</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>42230</v>
+        <v>42874</v>
       </c>
       <c r="B600">
-        <v>531.52002000000005</v>
+        <v>959.84009000000003</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>42229</v>
+        <v>42877</v>
       </c>
       <c r="B601">
-        <v>529.65992000000006</v>
+        <v>970.66993000000002</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>42228</v>
+        <v>42878</v>
       </c>
       <c r="B602">
-        <v>525.90992000000006</v>
+        <v>971.54003999999998</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>42227</v>
+        <v>42879</v>
       </c>
       <c r="B603">
-        <v>527.45997</v>
+        <v>980.3501</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>42226</v>
+        <v>42880</v>
       </c>
       <c r="B604">
-        <v>524</v>
+        <v>993.37989000000005</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>42223</v>
+        <v>42881</v>
       </c>
       <c r="B605">
-        <v>522.62012000000004</v>
+        <v>995.78003000000001</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>42222</v>
+        <v>42885</v>
       </c>
       <c r="B606">
-        <v>529.45997</v>
+        <v>996.69996000000003</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>42221</v>
+        <v>42886</v>
       </c>
       <c r="B607">
-        <v>537.01000999999997</v>
+        <v>994.62012000000004</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>42220</v>
+        <v>42887</v>
       </c>
       <c r="B608">
-        <v>531.89990999999998</v>
+        <v>995.94996000000003</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>42219</v>
+        <v>42888</v>
       </c>
       <c r="B609">
-        <v>535.03003000000001</v>
+        <v>1006.73</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>42216</v>
+        <v>42891</v>
       </c>
       <c r="B610">
-        <v>536.14990999999998</v>
+        <v>1011.3401</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>42215</v>
+        <v>42892</v>
       </c>
       <c r="B611">
-        <v>536.76000999999997</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>42214</v>
+        <v>42893</v>
       </c>
       <c r="B612">
-        <v>529</v>
+        <v>1010.0701</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>42213</v>
+        <v>42894</v>
       </c>
       <c r="B613">
-        <v>526.03003000000001</v>
+        <v>1010.2701</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>42212</v>
+        <v>42895</v>
       </c>
       <c r="B614">
-        <v>531.40992000000006</v>
+        <v>978.31006000000002</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>42209</v>
+        <v>42898</v>
       </c>
       <c r="B615">
-        <v>529.41993000000002</v>
+        <v>964.90992000000006</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>42208</v>
+        <v>42899</v>
       </c>
       <c r="B616">
-        <v>482.17993999999999</v>
+        <v>980.79003999999998</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>42207</v>
+        <v>42900</v>
       </c>
       <c r="B617">
-        <v>488.27001999999999</v>
+        <v>976.46997999999996</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>42206</v>
+        <v>42901</v>
       </c>
       <c r="B618">
-        <v>488</v>
+        <v>964.16993000000002</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>42205</v>
+        <v>42902</v>
       </c>
       <c r="B619">
-        <v>488.1001</v>
+        <v>987.70997</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>42202</v>
+        <v>42905</v>
       </c>
       <c r="B620">
-        <v>483.01001000000002</v>
+        <v>995.16993000000002</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>42201</v>
+        <v>42906</v>
       </c>
       <c r="B621">
-        <v>475.47998999999999</v>
+        <v>992.59009000000003</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>42200</v>
+        <v>42907</v>
       </c>
       <c r="B622">
-        <v>461.18995000000001</v>
+        <v>1002.23</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>42199</v>
+        <v>42908</v>
       </c>
       <c r="B623">
-        <v>465.57006999999999</v>
+        <v>1001.3001</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>42198</v>
+        <v>42909</v>
       </c>
       <c r="B624">
-        <v>455.57006999999999</v>
+        <v>1003.74</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>42195</v>
+        <v>42912</v>
       </c>
       <c r="B625">
-        <v>443.51001000000002</v>
+        <v>993.97999000000004</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>42194</v>
+        <v>42913</v>
       </c>
       <c r="B626">
-        <v>434.38990000000001</v>
+        <v>976.78003000000001</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>42193</v>
+        <v>42914</v>
       </c>
       <c r="B627">
-        <v>429.69995999999998</v>
+        <v>990.33007999999995</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>42192</v>
+        <v>42915</v>
       </c>
       <c r="B628">
-        <v>436.71998000000002</v>
+        <v>975.92993999999999</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>42191</v>
+        <v>42916</v>
       </c>
       <c r="B629">
-        <v>436.04003999999998</v>
+        <v>968</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>42187</v>
+        <v>42919</v>
       </c>
       <c r="B630">
-        <v>437.70997</v>
+        <v>953.65992000000006</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>42186</v>
+        <v>42921</v>
       </c>
       <c r="B631">
-        <v>437.38990000000001</v>
+        <v>971.39990999999998</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>42185</v>
+        <v>42922</v>
       </c>
       <c r="B632">
-        <v>434.09008999999998</v>
+        <v>965.13990000000001</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>42184</v>
+        <v>42923</v>
       </c>
       <c r="B633">
-        <v>429.86011000000002</v>
+        <v>978.76000999999997</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>42181</v>
+        <v>42926</v>
       </c>
       <c r="B634">
-        <v>438.1001</v>
+        <v>996.46997999999996</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>42180</v>
+        <v>42927</v>
       </c>
       <c r="B635">
-        <v>440.1001</v>
+        <v>994.12989000000005</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>42179</v>
+        <v>42928</v>
       </c>
       <c r="B636">
-        <v>440.84008999999998</v>
+        <v>1006.5101</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>42178</v>
+        <v>42929</v>
       </c>
       <c r="B637">
-        <v>445.99</v>
+        <v>1000.6299</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>42177</v>
+        <v>42930</v>
       </c>
       <c r="B638">
-        <v>436.29003999999998</v>
+        <v>1001.8101</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>42174</v>
+        <v>42933</v>
       </c>
       <c r="B639">
-        <v>434.91993000000002</v>
+        <v>1010.0401000000001</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>42173</v>
+        <v>42934</v>
       </c>
       <c r="B640">
-        <v>439.38990000000001</v>
+        <v>1024.45</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>42172</v>
+        <v>42935</v>
       </c>
       <c r="B641">
-        <v>427.81006000000002</v>
+        <v>1026.8702000000001</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>42171</v>
+        <v>42936</v>
       </c>
       <c r="B642">
-        <v>427.26001000000002</v>
+        <v>1028.7</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>42170</v>
+        <v>42937</v>
       </c>
       <c r="B643">
-        <v>423.66993000000002</v>
+        <v>1025.67</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>42167</v>
+        <v>42940</v>
       </c>
       <c r="B644">
-        <v>429.91993000000002</v>
+        <v>1038.95</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>42166</v>
+        <v>42941</v>
       </c>
       <c r="B645">
-        <v>432.96998000000002</v>
+        <v>1039.8702000000001</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>42165</v>
+        <v>42942</v>
       </c>
       <c r="B646">
-        <v>430.77001999999999</v>
+        <v>1052.8000999999999</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>42164</v>
+        <v>42943</v>
       </c>
       <c r="B647">
-        <v>425.47998999999999</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>42163</v>
+        <v>42944</v>
       </c>
       <c r="B648">
-        <v>423.5</v>
+        <v>1020.0401000000001</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>42160</v>
+        <v>42947</v>
       </c>
       <c r="B649">
-        <v>426.94995999999998</v>
+        <v>987.78003000000001</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>42159</v>
+        <v>42948</v>
       </c>
       <c r="B650">
-        <v>430.78003000000001</v>
+        <v>996.18994999999995</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>42158</v>
+        <v>42949</v>
       </c>
       <c r="B651">
-        <v>436.59008999999998</v>
+        <v>995.88990000000001</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>42157</v>
+        <v>42950</v>
       </c>
       <c r="B652">
-        <v>430.99</v>
+        <v>986.91993000000002</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>42156</v>
+        <v>42951</v>
       </c>
       <c r="B653">
-        <v>430.91993000000002</v>
+        <v>987.58007999999995</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>42153</v>
+        <v>42954</v>
       </c>
       <c r="B654">
-        <v>429.22998999999999</v>
+        <v>992.27002000000005</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>42152</v>
+        <v>42955</v>
       </c>
       <c r="B655">
-        <v>426.57006999999999</v>
+        <v>989.84009000000003</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
-        <v>42151</v>
+        <v>42956</v>
       </c>
       <c r="B656">
-        <v>431.41993000000002</v>
+        <v>982.01000999999997</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
-        <v>42150</v>
+        <v>42957</v>
       </c>
       <c r="B657">
-        <v>425.46998000000002</v>
+        <v>956.91993000000002</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <v>42146</v>
+        <v>42958</v>
       </c>
       <c r="B658">
-        <v>427.62988999999999</v>
+        <v>967.99</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>42145</v>
+        <v>42961</v>
       </c>
       <c r="B659">
-        <v>431.62988999999999</v>
+        <v>983.30005000000006</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
-        <v>42144</v>
+        <v>42962</v>
       </c>
       <c r="B660">
-        <v>423.86011000000002</v>
+        <v>982.74</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
-        <v>42143</v>
+        <v>42963</v>
       </c>
       <c r="B661">
-        <v>421.70997</v>
+        <v>978.17993999999999</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>42142</v>
+        <v>42964</v>
       </c>
       <c r="B662">
-        <v>425.24</v>
+        <v>960.57006999999999</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
-        <v>42139</v>
+        <v>42965</v>
       </c>
       <c r="B663">
-        <v>426</v>
+        <v>958.46997999999996</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
-        <v>42138</v>
+        <v>42968</v>
       </c>
       <c r="B664">
-        <v>432.28003000000001</v>
+        <v>953.29003999999998</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
-        <v>42137</v>
+        <v>42969</v>
       </c>
       <c r="B665">
-        <v>426.87011999999999</v>
+        <v>966.89990999999998</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
-        <v>42136</v>
+        <v>42970</v>
       </c>
       <c r="B666">
-        <v>431.02001999999999</v>
+        <v>958</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
-        <v>42135</v>
+        <v>42971</v>
       </c>
       <c r="B667">
-        <v>432.8501</v>
+        <v>952.44996000000003</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
-        <v>42132</v>
+        <v>42972</v>
       </c>
       <c r="B668">
-        <v>433.68995000000001</v>
+        <v>945.26000999999997</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>42131</v>
+        <v>42975</v>
       </c>
       <c r="B669">
-        <v>426.87988999999999</v>
+        <v>946.02002000000005</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
-        <v>42130</v>
+        <v>42976</v>
       </c>
       <c r="B670">
-        <v>419.1001</v>
+        <v>954.06006000000002</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>42129</v>
+        <v>42977</v>
       </c>
       <c r="B671">
-        <v>421.18995000000001</v>
+        <v>967.59009000000003</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>42128</v>
+        <v>42978</v>
       </c>
       <c r="B672">
-        <v>423.04003999999998</v>
+        <v>980.6001</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>42125</v>
+        <v>42979</v>
       </c>
       <c r="B673">
-        <v>422.87011999999999</v>
+        <v>978.25</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>42124</v>
+        <v>42983</v>
       </c>
       <c r="B674">
-        <v>421.78003000000001</v>
+        <v>965.27002000000005</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>42123</v>
+        <v>42984</v>
       </c>
       <c r="B675">
-        <v>429.37011999999999</v>
+        <v>967.80005000000006</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>42122</v>
+        <v>42985</v>
       </c>
       <c r="B676">
-        <v>429.31006000000002</v>
+        <v>979.46997999999996</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>42121</v>
+        <v>42986</v>
       </c>
       <c r="B677">
-        <v>438.56006000000002</v>
+        <v>965.89990999999998</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
-        <v>42118</v>
+        <v>42989</v>
       </c>
       <c r="B678">
-        <v>445.1001</v>
+        <v>977.95997</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>42117</v>
+        <v>42990</v>
       </c>
       <c r="B679">
-        <v>389.99</v>
+        <v>982.58007999999995</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
-        <v>42116</v>
+        <v>42991</v>
       </c>
       <c r="B680">
-        <v>389.80005</v>
+        <v>999.6001</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
-        <v>42115</v>
+        <v>42992</v>
       </c>
       <c r="B681">
-        <v>391.17993999999999</v>
+        <v>992.20997</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
-        <v>42114</v>
+        <v>42993</v>
       </c>
       <c r="B682">
-        <v>389.51001000000002</v>
+        <v>986.79003999999998</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
-        <v>42111</v>
+        <v>42996</v>
       </c>
       <c r="B683">
-        <v>375.56006000000002</v>
+        <v>974.18994999999995</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
-        <v>42110</v>
+        <v>42997</v>
       </c>
       <c r="B684">
-        <v>386.04003999999998</v>
+        <v>969.86010999999996</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
-        <v>42109</v>
+        <v>42998</v>
       </c>
       <c r="B685">
-        <v>383.44995999999998</v>
+        <v>973.20997</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
-        <v>42108</v>
+        <v>42999</v>
       </c>
       <c r="B686">
-        <v>385.11011000000002</v>
+        <v>964.64990999999998</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
-        <v>42107</v>
+        <v>43000</v>
       </c>
       <c r="B687">
-        <v>382.36011000000002</v>
+        <v>955.1001</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>42104</v>
+        <v>43003</v>
       </c>
       <c r="B688">
-        <v>382.64990999999998</v>
+        <v>939.79003999999998</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>42103</v>
+        <v>43004</v>
       </c>
       <c r="B689">
-        <v>383.54003999999998</v>
+        <v>938.6001</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>42102</v>
+        <v>43005</v>
       </c>
       <c r="B690">
-        <v>381.19995999999998</v>
+        <v>950.87012000000004</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
-        <v>42101</v>
+        <v>43006</v>
       </c>
       <c r="B691">
-        <v>374.40992</v>
+        <v>956.39990999999998</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>42100</v>
+        <v>43007</v>
       </c>
       <c r="B692">
-        <v>377.04003999999998</v>
+        <v>961.3501</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
-        <v>42096</v>
+        <v>43010</v>
       </c>
       <c r="B693">
-        <v>372.25</v>
+        <v>959.18994999999995</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
-        <v>42095</v>
+        <v>43011</v>
       </c>
       <c r="B694">
-        <v>370.25488999999999</v>
+        <v>957.1001</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
-        <v>42094</v>
+        <v>43012</v>
       </c>
       <c r="B695">
-        <v>372.1001</v>
+        <v>965.44996000000003</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
-        <v>42093</v>
+        <v>43013</v>
       </c>
       <c r="B696">
-        <v>374.59008999999998</v>
+        <v>980.8501</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
-        <v>42090</v>
+        <v>43014</v>
       </c>
       <c r="B697">
-        <v>370.56006000000002</v>
+        <v>989.58007999999995</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
-        <v>42089</v>
+        <v>43017</v>
       </c>
       <c r="B698">
-        <v>367.3501</v>
+        <v>990.99</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
-        <v>42088</v>
+        <v>43018</v>
       </c>
       <c r="B699">
-        <v>370.95997</v>
+        <v>987.19996000000003</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
-        <v>42087</v>
+        <v>43019</v>
       </c>
       <c r="B700">
-        <v>374.09008999999998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
-        <v>42086</v>
+        <v>43020</v>
       </c>
       <c r="B701">
-        <v>375.11011000000002</v>
+        <v>1000.93</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
-        <v>42083</v>
+        <v>43021</v>
       </c>
       <c r="B702">
-        <v>378.49</v>
+        <v>1002.94</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
-        <v>42082</v>
+        <v>43024</v>
       </c>
       <c r="B703">
-        <v>373.24</v>
+        <v>1006.3401</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
-        <v>42081</v>
+        <v>43025</v>
       </c>
       <c r="B704">
-        <v>375.13501000000002</v>
+        <v>1009.1299</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
-        <v>42080</v>
+        <v>43026</v>
       </c>
       <c r="B705">
-        <v>371.91993000000002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
-        <v>42079</v>
+        <v>43027</v>
       </c>
       <c r="B706">
-        <v>373.3501</v>
+        <v>986.61010999999996</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
-        <v>42076</v>
+        <v>43028</v>
       </c>
       <c r="B707">
-        <v>370.58008000000001</v>
+        <v>982.90992000000006</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
-        <v>42075</v>
+        <v>43031</v>
       </c>
       <c r="B708">
-        <v>374.24</v>
+        <v>966.30005000000006</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>42074</v>
+        <v>43032</v>
       </c>
       <c r="B709">
-        <v>366.37011999999999</v>
+        <v>975.89990999999998</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
-        <v>42073</v>
+        <v>43033</v>
       </c>
       <c r="B710">
-        <v>369.51001000000002</v>
+        <v>972.90992000000006</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
-        <v>42072</v>
+        <v>43034</v>
       </c>
       <c r="B711">
-        <v>378.56006000000002</v>
+        <v>972.42993999999999</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>42069</v>
+        <v>43035</v>
       </c>
       <c r="B712">
-        <v>380.09008999999998</v>
+        <v>1100.95</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
-        <v>42068</v>
+        <v>43038</v>
       </c>
       <c r="B713">
-        <v>387.83008000000001</v>
+        <v>1110.8501000000001</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
-        <v>42067</v>
+        <v>43039</v>
       </c>
       <c r="B714">
-        <v>382.71998000000002</v>
+        <v>1105.2800999999999</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
-        <v>42066</v>
+        <v>43040</v>
       </c>
       <c r="B715">
-        <v>384.61011000000002</v>
+        <v>1103.68</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>42065</v>
+        <v>43041</v>
       </c>
       <c r="B716">
-        <v>385.65503000000001</v>
+        <v>1094.22</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>42062</v>
+        <v>43042</v>
       </c>
       <c r="B717">
-        <v>380.15992</v>
+        <v>1111.6001000000001</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>42061</v>
+        <v>43045</v>
       </c>
       <c r="B718">
-        <v>384.80005</v>
+        <v>1120.6600000000001</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
-        <v>42060</v>
+        <v>43046</v>
       </c>
       <c r="B719">
-        <v>385.37011999999999</v>
+        <v>1123.17</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
-        <v>42059</v>
+        <v>43047</v>
       </c>
       <c r="B720">
-        <v>378.59008999999998</v>
+        <v>1132.8798999999999</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
-        <v>42058</v>
+        <v>43048</v>
       </c>
       <c r="B721">
-        <v>380.13990000000001</v>
+        <v>1129.1298999999999</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
-        <v>42055</v>
+        <v>43049</v>
       </c>
       <c r="B722">
-        <v>383.65992</v>
+        <v>1125.3501000000001</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
-        <v>42054</v>
+        <v>43052</v>
       </c>
       <c r="B723">
-        <v>378.99511999999999</v>
+        <v>1129.17</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
-        <v>42053</v>
+        <v>43053</v>
       </c>
       <c r="B724">
-        <v>373.37011999999999</v>
+        <v>1136.8400999999999</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
-        <v>42052</v>
+        <v>43054</v>
       </c>
       <c r="B725">
-        <v>375.42993999999999</v>
+        <v>1126.69</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
-        <v>42048</v>
+        <v>43055</v>
       </c>
       <c r="B726">
-        <v>381.83008000000001</v>
+        <v>1137.2900999999999</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
-        <v>42047</v>
+        <v>43056</v>
       </c>
       <c r="B727">
-        <v>377.16993000000002</v>
+        <v>1129.8798999999999</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
-        <v>42046</v>
+        <v>43059</v>
       </c>
       <c r="B728">
-        <v>375.13990000000001</v>
+        <v>1126.3100999999999</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
-        <v>42045</v>
+        <v>43060</v>
       </c>
       <c r="B729">
-        <v>372.99511999999999</v>
+        <v>1139.49</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
-        <v>42044</v>
+        <v>43061</v>
       </c>
       <c r="B730">
-        <v>370.56006000000002</v>
+        <v>1156.1600000000001</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
-        <v>42041</v>
+        <v>43063</v>
       </c>
       <c r="B731">
-        <v>374.28003000000001</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
-        <v>42040</v>
+        <v>43066</v>
       </c>
       <c r="B732">
-        <v>373.88990000000001</v>
+        <v>1195.8300999999999</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
-        <v>42039</v>
+        <v>43067</v>
       </c>
       <c r="B733">
-        <v>364.75</v>
+        <v>1193.6001000000001</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
-        <v>42038</v>
+        <v>43068</v>
       </c>
       <c r="B734">
-        <v>363.55005</v>
+        <v>1161.2701</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
-        <v>42037</v>
+        <v>43069</v>
       </c>
       <c r="B735">
-        <v>364.46998000000002</v>
+        <v>1176.75</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>42034</v>
+        <v>43070</v>
       </c>
       <c r="B736">
-        <v>354.53003000000001</v>
+        <v>1162.3501000000001</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>42033</v>
+        <v>43073</v>
       </c>
       <c r="B737">
-        <v>311.78003000000001</v>
+        <v>1133.95</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>42032</v>
+        <v>43074</v>
       </c>
       <c r="B738">
-        <v>303.90992</v>
+        <v>1141.5700999999999</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
-        <v>42031</v>
+        <v>43075</v>
       </c>
       <c r="B739">
-        <v>306.75</v>
+        <v>1152.3501000000001</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
-        <v>42030</v>
+        <v>43076</v>
       </c>
       <c r="B740">
-        <v>309.65992</v>
+        <v>1159.7900999999999</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
-        <v>42027</v>
+        <v>43077</v>
       </c>
       <c r="B741">
-        <v>312.38990000000001</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
-        <v>42026</v>
+        <v>43080</v>
       </c>
       <c r="B742">
-        <v>310.32006999999999</v>
+        <v>1168.92</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
-        <v>42025</v>
+        <v>43081</v>
       </c>
       <c r="B743">
-        <v>297.25</v>
+        <v>1165.0800999999999</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
-        <v>42024</v>
+        <v>43082</v>
       </c>
       <c r="B744">
-        <v>289.43995000000001</v>
+        <v>1164.1298999999999</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
-        <v>42020</v>
+        <v>43083</v>
       </c>
       <c r="B745">
-        <v>290.74</v>
+        <v>1174.2601</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
-        <v>42019</v>
+        <v>43084</v>
       </c>
       <c r="B746">
-        <v>286.94995999999998</v>
+        <v>1179.1398999999999</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
-        <v>42018</v>
+        <v>43087</v>
       </c>
       <c r="B747">
-        <v>293.27001999999999</v>
+        <v>1190.5800999999999</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
-        <v>42017</v>
+        <v>43088</v>
       </c>
       <c r="B748">
-        <v>294.74</v>
+        <v>1187.3798999999999</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
-        <v>42016</v>
+        <v>43089</v>
       </c>
       <c r="B749">
-        <v>291.40992</v>
+        <v>1177.6202000000001</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
-        <v>42013</v>
+        <v>43090</v>
       </c>
       <c r="B750">
-        <v>296.92993999999999</v>
+        <v>1174.7601</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
-        <v>42012</v>
+        <v>43091</v>
       </c>
       <c r="B751">
-        <v>300.45997</v>
+        <v>1168.3602000000001</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
-        <v>42011</v>
+        <v>43095</v>
       </c>
       <c r="B752">
-        <v>298.41993000000002</v>
+        <v>1176.7601</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
-        <v>42010</v>
+        <v>43096</v>
       </c>
       <c r="B753">
-        <v>295.29003999999998</v>
+        <v>1182.2601</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
-        <v>42009</v>
+        <v>43097</v>
       </c>
       <c r="B754">
-        <v>302.18995000000001</v>
+        <v>1186.1001000000001</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
-        <v>42006</v>
+        <v>43098</v>
       </c>
       <c r="B755">
-        <v>308.52001999999999</v>
+        <v>1169.47</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B755">
-    <sortCondition descending="1" ref="A1:A755"/>
+  <sortState ref="A1:B755">
+    <sortCondition ref="A1:A755"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
